--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_8_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_8_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3453621.836184965</v>
+        <v>3447046.123926331</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4895991.679432716</v>
+        <v>4895991.679432717</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>963985.3264850876</v>
+        <v>963985.3264850872</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8146722.628488694</v>
+        <v>8146722.628488693</v>
       </c>
     </row>
     <row r="11">
@@ -673,7 +673,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>240.2580556792261</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>72.47049842454879</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -746,19 +746,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>145.1806198985548</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>142.4608998365542</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -825,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>68.21015448122992</v>
       </c>
       <c r="C5" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,52 +907,52 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R5" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S5" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T5" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>57.67342812714408</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1028,13 +1028,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>29.83623182992856</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>183.4693513325733</v>
+      </c>
+      <c r="D8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>241.0142888776591</v>
@@ -1147,16 +1147,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>225.9570399944389</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1211,31 +1211,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>29.87434464870853</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>145.1806198985548</v>
       </c>
     </row>
     <row r="10">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.3743728944864</v>
+        <v>411.3743728944873</v>
       </c>
       <c r="H11" t="n">
-        <v>299.2434379445493</v>
+        <v>299.2434379445492</v>
       </c>
       <c r="I11" t="n">
         <v>59.02761253284899</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>119.5024607932143</v>
+        <v>119.502460793214</v>
       </c>
       <c r="T11" t="n">
         <v>205.8994334372419</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0313837381846</v>
+        <v>251.031383738184</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>23.69335770153665</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>103.0164527800732</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.2288502284178</v>
       </c>
       <c r="H13" t="n">
         <v>146.5602426058027</v>
       </c>
       <c r="I13" t="n">
-        <v>102.4584461802083</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>98.0616579482369</v>
       </c>
       <c r="S13" t="n">
         <v>193.3074931070766</v>
       </c>
       <c r="T13" t="n">
-        <v>220.4164922362883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.222913222125</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>91.29382797167307</v>
+        <v>166.2288502284178</v>
       </c>
       <c r="H16" t="n">
-        <v>146.5602426058027</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>102.4584461802083</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>98.0616579482369</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>193.3074931070766</v>
       </c>
       <c r="T16" t="n">
-        <v>220.4164922362883</v>
+        <v>16.17761493174811</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.222913222125</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1897,10 +1897,10 @@
         <v>119.5024607932143</v>
       </c>
       <c r="T17" t="n">
-        <v>205.8994334372419</v>
+        <v>205.8994334372427</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0313837381846</v>
+        <v>251.0313837381849</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2004,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>98.0616579482369</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>193.3074931070766</v>
       </c>
       <c r="T19" t="n">
-        <v>220.4164922362883</v>
+        <v>2.574484978228622</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.222913222125</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>134.4857629834963</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>150.1512281977657</v>
+        <v>155.2974660309544</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>98.0616579482369</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>193.3074931070766</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>220.4164922362883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.222913222125</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2496,7 +2496,7 @@
         <v>146.5602426058027</v>
       </c>
       <c r="I25" t="n">
-        <v>102.4584461802083</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>98.0616579482369</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>43.31997596669789</v>
       </c>
       <c r="T25" t="n">
-        <v>125.4486866078803</v>
+        <v>220.4164922362883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.222913222125</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>299.2434379445492</v>
       </c>
       <c r="I26" t="n">
-        <v>59.02761253284973</v>
+        <v>59.02761253284899</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2718,13 +2718,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>9.876418008023149</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>193.3074931070766</v>
       </c>
       <c r="T28" t="n">
         <v>220.4164922362883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.222913222125</v>
+        <v>248.2128861460025</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2848,7 +2848,7 @@
         <v>205.8994334372419</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0313837381846</v>
+        <v>251.0313837381849</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>20.45280721428701</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>187.6996283129148</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>150.1512281977661</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>98.0616579482369</v>
       </c>
       <c r="S34" t="n">
         <v>193.3074931070766</v>
@@ -3243,7 +3243,7 @@
         <v>220.4164922362883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.222913222125</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>180.5746262759725</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3319,10 +3319,10 @@
         <v>119.5024607932143</v>
       </c>
       <c r="T35" t="n">
-        <v>205.8994334372419</v>
+        <v>205.8994334372427</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0313837381846</v>
+        <v>251.0313837381849</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3556,10 +3556,10 @@
         <v>119.5024607932143</v>
       </c>
       <c r="T38" t="n">
-        <v>205.8994334372427</v>
+        <v>205.8994334372419</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0313837381849</v>
+        <v>251.0313837381846</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.2288502284178</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>98.0616579482369</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>193.3074931070766</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>182.4064651601658</v>
       </c>
       <c r="U40" t="n">
         <v>286.222913222125</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>124.0312524757772</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.2288502284178</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>146.5602426058027</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>98.0616579482369</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>193.3074931070766</v>
@@ -3957,16 +3957,16 @@
         <v>286.222913222125</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>148.2626980922484</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>180.5746262759725</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3988,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G44" t="n">
         <v>411.3743728944864</v>
@@ -4137,22 +4137,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.2288502284178</v>
       </c>
       <c r="H46" t="n">
-        <v>146.5602426058027</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>193.3074931070766</v>
       </c>
       <c r="T46" t="n">
-        <v>220.4164922362883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>132.555111472278</v>
+        <v>135.1537070552454</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>518.2486856454962</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="C2" t="n">
-        <v>518.2486856454962</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="D2" t="n">
-        <v>518.2486856454962</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="E2" t="n">
-        <v>518.2486856454962</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="F2" t="n">
-        <v>274.7999090013961</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="G2" t="n">
         <v>31.35113235729608</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066566</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T2" t="n">
-        <v>591.4512093066566</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U2" t="n">
-        <v>518.2486856454962</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V2" t="n">
-        <v>518.2486856454962</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W2" t="n">
-        <v>518.2486856454962</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="X2" t="n">
-        <v>518.2486856454962</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="Y2" t="n">
-        <v>518.2486856454962</v>
+        <v>517.4848137278872</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>718.9877272387197</v>
+        <v>649.1947276839472</v>
       </c>
       <c r="C3" t="n">
-        <v>544.5346979575927</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="D3" t="n">
-        <v>395.6002882963414</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E3" t="n">
-        <v>395.6002882963414</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F3" t="n">
-        <v>249.0657303232264</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4412,49 +4412,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>817.4100647040152</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>817.4100647040152</v>
       </c>
       <c r="U3" t="n">
-        <v>718.9877272387197</v>
+        <v>817.4100647040152</v>
       </c>
       <c r="V3" t="n">
-        <v>718.9877272387197</v>
+        <v>817.4100647040152</v>
       </c>
       <c r="W3" t="n">
-        <v>718.9877272387197</v>
+        <v>817.4100647040152</v>
       </c>
       <c r="X3" t="n">
-        <v>718.9877272387197</v>
+        <v>817.4100647040152</v>
       </c>
       <c r="Y3" t="n">
-        <v>718.9877272387197</v>
+        <v>817.4100647040152</v>
       </c>
     </row>
     <row r="4">
@@ -4473,22 +4473,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>964.0571555106362</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C5" t="n">
-        <v>749.627473042513</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D5" t="n">
-        <v>749.627473042513</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E5" t="n">
-        <v>749.627473042513</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F5" t="n">
-        <v>506.1786963984129</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y5" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>194.4883050441255</v>
+        <v>191.6603993626354</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>191.6603993626354</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>191.6603993626354</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>191.6603993626354</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>191.6603993626354</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>191.6603993626354</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>78.29126377021468</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4649,22 +4649,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M6" t="n">
-        <v>486.8488635328713</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4676,22 +4676,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>660.701031422288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>432.4774131586771</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V6" t="n">
-        <v>402.3398052496583</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W6" t="n">
-        <v>402.3398052496583</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="X6" t="n">
-        <v>194.4883050441255</v>
+        <v>191.6603993626354</v>
       </c>
       <c r="Y6" t="n">
-        <v>194.4883050441255</v>
+        <v>191.6603993626354</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C8" t="n">
-        <v>710.516763498309</v>
+        <v>768.6429630387997</v>
       </c>
       <c r="D8" t="n">
-        <v>710.516763498309</v>
+        <v>525.1941863946997</v>
       </c>
       <c r="E8" t="n">
-        <v>467.067986854209</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="F8" t="n">
-        <v>460.1224861050055</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G8" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>422.7646269515677</v>
+        <v>649.1947276839472</v>
       </c>
       <c r="C9" t="n">
-        <v>248.3115976704407</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="D9" t="n">
-        <v>248.3115976704407</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E9" t="n">
-        <v>248.3115976704407</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F9" t="n">
-        <v>248.3115976704407</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>851.8101010141643</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>832.7115203577557</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>630.5249257165217</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>630.5249257165217</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>630.5249257165217</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>630.5249257165217</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>630.5249257165217</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>422.7646269515677</v>
+        <v>817.4100647040152</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>113.583345248266</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>113.583345248266</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>113.583345248266</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2397.701876211742</v>
+        <v>2397.701876211743</v>
       </c>
       <c r="C11" t="n">
-        <v>2028.739359271331</v>
+        <v>2028.739359271332</v>
       </c>
       <c r="D11" t="n">
-        <v>1670.47366066458</v>
+        <v>1670.473660664581</v>
       </c>
       <c r="E11" t="n">
-        <v>1284.685408066336</v>
+        <v>1284.685408066337</v>
       </c>
       <c r="F11" t="n">
-        <v>873.6995032767284</v>
+        <v>873.699503276729</v>
       </c>
       <c r="G11" t="n">
-        <v>458.1698336863381</v>
+        <v>458.1698336863378</v>
       </c>
       <c r="H11" t="n">
-        <v>155.9037347524499</v>
+        <v>155.9037347524498</v>
       </c>
       <c r="I11" t="n">
-        <v>96.27988370916803</v>
+        <v>96.279883709168</v>
       </c>
       <c r="J11" t="n">
         <v>414.5309736026618</v>
@@ -5047,46 +5047,46 @@
         <v>1012.251663516281</v>
       </c>
       <c r="L11" t="n">
-        <v>1806.05366097522</v>
+        <v>1806.053660975221</v>
       </c>
       <c r="M11" t="n">
-        <v>2705.917877891641</v>
+        <v>2260.899479733737</v>
       </c>
       <c r="N11" t="n">
-        <v>3172.737385903167</v>
+        <v>2854.604825659704</v>
       </c>
       <c r="O11" t="n">
-        <v>3977.198728078356</v>
+        <v>3659.066167834893</v>
       </c>
       <c r="P11" t="n">
-        <v>4518.172769356252</v>
+        <v>4307.980928602945</v>
       </c>
       <c r="Q11" t="n">
-        <v>4718.067129459338</v>
+        <v>4718.067129459336</v>
       </c>
       <c r="R11" t="n">
-        <v>4813.994185458401</v>
+        <v>4813.9941854584</v>
       </c>
       <c r="S11" t="n">
         <v>4693.284629101619</v>
       </c>
       <c r="T11" t="n">
-        <v>4485.305403407436</v>
+        <v>4485.305403407435</v>
       </c>
       <c r="U11" t="n">
         <v>4231.738349126441</v>
       </c>
       <c r="V11" t="n">
-        <v>3900.67546178287</v>
+        <v>3900.675461782871</v>
       </c>
       <c r="W11" t="n">
-        <v>3547.906806512756</v>
+        <v>3547.906806512757</v>
       </c>
       <c r="X11" t="n">
-        <v>3174.441048251676</v>
+        <v>3174.441048251677</v>
       </c>
       <c r="Y11" t="n">
-        <v>2784.301716275864</v>
+        <v>2784.301716275865</v>
       </c>
     </row>
     <row r="12">
@@ -5108,40 +5108,40 @@
         <v>489.4886879270636</v>
       </c>
       <c r="F12" t="n">
-        <v>342.9541299539486</v>
+        <v>342.9541299539485</v>
       </c>
       <c r="G12" t="n">
         <v>206.3463958216802</v>
       </c>
       <c r="H12" t="n">
-        <v>113.4818523776181</v>
+        <v>113.481852377618</v>
       </c>
       <c r="I12" t="n">
-        <v>96.27988370916803</v>
+        <v>96.279883709168</v>
       </c>
       <c r="J12" t="n">
-        <v>167.3045479414941</v>
+        <v>292.1346729284988</v>
       </c>
       <c r="K12" t="n">
-        <v>628.6724211239937</v>
+        <v>505.017001962514</v>
       </c>
       <c r="L12" t="n">
-        <v>943.3109173861642</v>
+        <v>819.6554982246845</v>
       </c>
       <c r="M12" t="n">
-        <v>1329.836070157271</v>
+        <v>1206.180650995792</v>
       </c>
       <c r="N12" t="n">
-        <v>1741.000038496489</v>
+        <v>1617.34461933501</v>
       </c>
       <c r="O12" t="n">
-        <v>2094.914946926822</v>
+        <v>1971.259527765342</v>
       </c>
       <c r="P12" t="n">
-        <v>2359.629796388372</v>
+        <v>2235.974377226892</v>
       </c>
       <c r="Q12" t="n">
-        <v>2601.025026013057</v>
+        <v>2570.986562194853</v>
       </c>
       <c r="R12" t="n">
         <v>2601.025026013057</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>601.9875752084575</v>
+        <v>436.1611468765994</v>
       </c>
       <c r="C13" t="n">
-        <v>601.9875752084575</v>
+        <v>412.2284623295927</v>
       </c>
       <c r="D13" t="n">
-        <v>451.8709357961218</v>
+        <v>412.2284623295927</v>
       </c>
       <c r="E13" t="n">
-        <v>347.8139127859468</v>
+        <v>412.2284623295927</v>
       </c>
       <c r="F13" t="n">
-        <v>347.8139127859468</v>
+        <v>412.2284623295927</v>
       </c>
       <c r="G13" t="n">
-        <v>347.8139127859468</v>
+        <v>244.3205328059384</v>
       </c>
       <c r="H13" t="n">
-        <v>199.7732636891764</v>
+        <v>96.279883709168</v>
       </c>
       <c r="I13" t="n">
-        <v>96.27988370916803</v>
+        <v>96.279883709168</v>
       </c>
       <c r="J13" t="n">
         <v>127.1909995926189</v>
@@ -5223,28 +5223,28 @@
         <v>1757.786774508076</v>
       </c>
       <c r="R13" t="n">
-        <v>1757.786774508076</v>
+        <v>1658.734594762382</v>
       </c>
       <c r="S13" t="n">
-        <v>1562.526680460523</v>
+        <v>1463.47450071483</v>
       </c>
       <c r="T13" t="n">
-        <v>1339.883759009727</v>
+        <v>1463.47450071483</v>
       </c>
       <c r="U13" t="n">
-        <v>1050.769705250005</v>
+        <v>1174.360446955108</v>
       </c>
       <c r="V13" t="n">
-        <v>1050.769705250005</v>
+        <v>1174.360446955108</v>
       </c>
       <c r="W13" t="n">
-        <v>1050.769705250005</v>
+        <v>884.9432769181469</v>
       </c>
       <c r="X13" t="n">
-        <v>822.7801543519877</v>
+        <v>656.9537260201296</v>
       </c>
       <c r="Y13" t="n">
-        <v>601.9875752084575</v>
+        <v>436.1611468765994</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2397.70187621174</v>
+        <v>2397.701876211741</v>
       </c>
       <c r="C14" t="n">
-        <v>2028.739359271329</v>
+        <v>2028.73935927133</v>
       </c>
       <c r="D14" t="n">
         <v>1670.473660664579</v>
       </c>
       <c r="E14" t="n">
-        <v>1284.685408066335</v>
+        <v>1284.685408066336</v>
       </c>
       <c r="F14" t="n">
-        <v>873.6995032767272</v>
+        <v>873.6995032767283</v>
       </c>
       <c r="G14" t="n">
-        <v>458.1698336863374</v>
+        <v>458.1698336863379</v>
       </c>
       <c r="H14" t="n">
-        <v>155.90373475245</v>
+        <v>155.9037347524498</v>
       </c>
       <c r="I14" t="n">
-        <v>96.27988370916803</v>
+        <v>96.279883709168</v>
       </c>
       <c r="J14" t="n">
-        <v>247.1253245823088</v>
+        <v>414.5309736026618</v>
       </c>
       <c r="K14" t="n">
-        <v>844.8460144959279</v>
+        <v>1012.251663516281</v>
       </c>
       <c r="L14" t="n">
-        <v>1638.648011954867</v>
+        <v>1499.966043721798</v>
       </c>
       <c r="M14" t="n">
-        <v>2230.062958907874</v>
+        <v>1954.811862480314</v>
       </c>
       <c r="N14" t="n">
-        <v>3129.855922087263</v>
+        <v>2854.604825659704</v>
       </c>
       <c r="O14" t="n">
-        <v>3934.317264262452</v>
+        <v>3659.066167834893</v>
       </c>
       <c r="P14" t="n">
-        <v>4583.232025030504</v>
+        <v>4307.980928602945</v>
       </c>
       <c r="Q14" t="n">
-        <v>4783.12638513359</v>
+        <v>4718.067129459336</v>
       </c>
       <c r="R14" t="n">
-        <v>4813.994185458401</v>
+        <v>4813.9941854584</v>
       </c>
       <c r="S14" t="n">
         <v>4693.284629101619</v>
       </c>
       <c r="T14" t="n">
-        <v>4485.305403407434</v>
+        <v>4485.305403407435</v>
       </c>
       <c r="U14" t="n">
-        <v>4231.738349126439</v>
+        <v>4231.73834912644</v>
       </c>
       <c r="V14" t="n">
-        <v>3900.675461782868</v>
+        <v>3900.675461782869</v>
       </c>
       <c r="W14" t="n">
-        <v>3547.906806512754</v>
+        <v>3547.906806512755</v>
       </c>
       <c r="X14" t="n">
-        <v>3174.441048251674</v>
+        <v>3174.441048251675</v>
       </c>
       <c r="Y14" t="n">
-        <v>2784.301716275862</v>
+        <v>2784.301716275863</v>
       </c>
     </row>
     <row r="15">
@@ -5345,22 +5345,22 @@
         <v>489.4886879270636</v>
       </c>
       <c r="F15" t="n">
-        <v>342.9541299539486</v>
+        <v>342.9541299539485</v>
       </c>
       <c r="G15" t="n">
         <v>206.3463958216802</v>
       </c>
       <c r="H15" t="n">
-        <v>113.4818523776181</v>
+        <v>113.481852377618</v>
       </c>
       <c r="I15" t="n">
-        <v>96.27988370916803</v>
+        <v>96.279883709168</v>
       </c>
       <c r="J15" t="n">
-        <v>167.3045479414941</v>
+        <v>176.3527502487375</v>
       </c>
       <c r="K15" t="n">
-        <v>375.9000387887849</v>
+        <v>375.9000387887843</v>
       </c>
       <c r="L15" t="n">
         <v>1057.67047690138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>737.0364875463678</v>
+        <v>264.1878132328224</v>
       </c>
       <c r="C16" t="n">
-        <v>737.0364875463678</v>
+        <v>264.1878132328224</v>
       </c>
       <c r="D16" t="n">
-        <v>586.919848134032</v>
+        <v>264.1878132328224</v>
       </c>
       <c r="E16" t="n">
-        <v>586.919848134032</v>
+        <v>264.1878132328224</v>
       </c>
       <c r="F16" t="n">
-        <v>440.0299006361216</v>
+        <v>264.1878132328224</v>
       </c>
       <c r="G16" t="n">
-        <v>347.8139127859468</v>
+        <v>96.279883709168</v>
       </c>
       <c r="H16" t="n">
-        <v>199.7732636891764</v>
+        <v>96.279883709168</v>
       </c>
       <c r="I16" t="n">
-        <v>96.27988370916803</v>
+        <v>96.279883709168</v>
       </c>
       <c r="J16" t="n">
         <v>127.1909995926189</v>
@@ -5460,28 +5460,28 @@
         <v>1757.786774508076</v>
       </c>
       <c r="R16" t="n">
-        <v>1658.734594762382</v>
+        <v>1757.786774508076</v>
       </c>
       <c r="S16" t="n">
-        <v>1658.734594762382</v>
+        <v>1562.526680460524</v>
       </c>
       <c r="T16" t="n">
-        <v>1436.091673311586</v>
+        <v>1546.18565527694</v>
       </c>
       <c r="U16" t="n">
-        <v>1436.091673311586</v>
+        <v>1257.071601517217</v>
       </c>
       <c r="V16" t="n">
-        <v>1436.091673311586</v>
+        <v>1002.38711331133</v>
       </c>
       <c r="W16" t="n">
-        <v>1146.674503274625</v>
+        <v>712.9699432743698</v>
       </c>
       <c r="X16" t="n">
-        <v>918.6849523766075</v>
+        <v>484.9803923763525</v>
       </c>
       <c r="Y16" t="n">
-        <v>918.6849523766075</v>
+        <v>264.1878132328224</v>
       </c>
     </row>
     <row r="17">
@@ -5497,46 +5497,46 @@
         <v>2028.73935927133</v>
       </c>
       <c r="D17" t="n">
-        <v>1670.47366066458</v>
+        <v>1670.473660664579</v>
       </c>
       <c r="E17" t="n">
-        <v>1284.685408066336</v>
+        <v>1284.685408066335</v>
       </c>
       <c r="F17" t="n">
-        <v>873.6995032767281</v>
+        <v>873.6995032767277</v>
       </c>
       <c r="G17" t="n">
-        <v>458.1698336863381</v>
+        <v>458.1698336863374</v>
       </c>
       <c r="H17" t="n">
-        <v>155.90373475245</v>
+        <v>155.9037347524499</v>
       </c>
       <c r="I17" t="n">
         <v>96.27988370916803</v>
       </c>
       <c r="J17" t="n">
-        <v>247.1253245823088</v>
+        <v>414.5309736026618</v>
       </c>
       <c r="K17" t="n">
-        <v>844.8460144959279</v>
+        <v>1012.251663516281</v>
       </c>
       <c r="L17" t="n">
-        <v>1638.648011954867</v>
+        <v>1806.053660975221</v>
       </c>
       <c r="M17" t="n">
-        <v>2230.062958907874</v>
+        <v>2387.78531764818</v>
       </c>
       <c r="N17" t="n">
-        <v>3129.855922087263</v>
+        <v>2854.604825659706</v>
       </c>
       <c r="O17" t="n">
-        <v>3934.317264262452</v>
+        <v>3659.066167834895</v>
       </c>
       <c r="P17" t="n">
-        <v>4583.232025030504</v>
+        <v>4307.980928602947</v>
       </c>
       <c r="Q17" t="n">
-        <v>4783.12638513359</v>
+        <v>4718.067129459338</v>
       </c>
       <c r="R17" t="n">
         <v>4813.994185458401</v>
@@ -5594,22 +5594,22 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J18" t="n">
-        <v>167.3045479414941</v>
+        <v>292.1346729284988</v>
       </c>
       <c r="K18" t="n">
-        <v>535.0554657807189</v>
+        <v>491.6819614685456</v>
       </c>
       <c r="L18" t="n">
-        <v>849.6939620428894</v>
+        <v>806.3204577307162</v>
       </c>
       <c r="M18" t="n">
-        <v>1236.219114813997</v>
+        <v>1192.845610501823</v>
       </c>
       <c r="N18" t="n">
-        <v>1647.383083153214</v>
+        <v>1604.009578841041</v>
       </c>
       <c r="O18" t="n">
-        <v>2001.297991583547</v>
+        <v>1957.924487271374</v>
       </c>
       <c r="P18" t="n">
         <v>2266.012841045097</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>413.1291602194681</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="C19" t="n">
-        <v>244.1929772915611</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1929772915611</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="E19" t="n">
         <v>96.27988370916803</v>
@@ -5697,28 +5697,28 @@
         <v>1757.786774508076</v>
       </c>
       <c r="R19" t="n">
-        <v>1658.734594762382</v>
+        <v>1757.786774508076</v>
       </c>
       <c r="S19" t="n">
-        <v>1463.47450071483</v>
+        <v>1562.526680460524</v>
       </c>
       <c r="T19" t="n">
-        <v>1240.831579264033</v>
+        <v>1559.926190583525</v>
       </c>
       <c r="U19" t="n">
-        <v>1240.831579264033</v>
+        <v>1270.812136823803</v>
       </c>
       <c r="V19" t="n">
-        <v>1240.831579264033</v>
+        <v>1016.127648617916</v>
       </c>
       <c r="W19" t="n">
-        <v>951.4144092270726</v>
+        <v>726.7104785809552</v>
       </c>
       <c r="X19" t="n">
-        <v>815.5702041932379</v>
+        <v>498.7209276829378</v>
       </c>
       <c r="Y19" t="n">
-        <v>594.7776250497078</v>
+        <v>277.9283485394078</v>
       </c>
     </row>
     <row r="20">
@@ -5728,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2397.70187621174</v>
+        <v>2397.701876211742</v>
       </c>
       <c r="C20" t="n">
-        <v>2028.739359271329</v>
+        <v>2028.739359271331</v>
       </c>
       <c r="D20" t="n">
-        <v>1670.473660664579</v>
+        <v>1670.47366066458</v>
       </c>
       <c r="E20" t="n">
-        <v>1284.685408066335</v>
+        <v>1284.685408066336</v>
       </c>
       <c r="F20" t="n">
-        <v>873.6995032767272</v>
+        <v>873.6995032767283</v>
       </c>
       <c r="G20" t="n">
-        <v>458.1698336863374</v>
+        <v>458.1698336863379</v>
       </c>
       <c r="H20" t="n">
-        <v>155.90373475245</v>
+        <v>155.9037347524499</v>
       </c>
       <c r="I20" t="n">
         <v>96.27988370916803</v>
       </c>
       <c r="J20" t="n">
-        <v>247.1253245823088</v>
+        <v>414.5309736026618</v>
       </c>
       <c r="K20" t="n">
-        <v>844.8460144959279</v>
+        <v>1012.251663516281</v>
       </c>
       <c r="L20" t="n">
-        <v>1638.648011954867</v>
+        <v>1806.053660975221</v>
       </c>
       <c r="M20" t="n">
-        <v>2093.493830713384</v>
+        <v>2260.899479733737</v>
       </c>
       <c r="N20" t="n">
-        <v>2993.286793892774</v>
+        <v>2854.604825659706</v>
       </c>
       <c r="O20" t="n">
-        <v>3797.748136067963</v>
+        <v>3659.066167834895</v>
       </c>
       <c r="P20" t="n">
-        <v>4446.662896836015</v>
+        <v>4307.980928602947</v>
       </c>
       <c r="Q20" t="n">
-        <v>4783.12638513359</v>
+        <v>4718.067129459338</v>
       </c>
       <c r="R20" t="n">
         <v>4813.994185458401</v>
@@ -5782,22 +5782,22 @@
         <v>4693.284629101619</v>
       </c>
       <c r="T20" t="n">
-        <v>4485.305403407434</v>
+        <v>4485.305403407436</v>
       </c>
       <c r="U20" t="n">
-        <v>4231.738349126439</v>
+        <v>4231.738349126441</v>
       </c>
       <c r="V20" t="n">
-        <v>3900.675461782868</v>
+        <v>3900.67546178287</v>
       </c>
       <c r="W20" t="n">
-        <v>3547.906806512754</v>
+        <v>3547.906806512756</v>
       </c>
       <c r="X20" t="n">
-        <v>3174.441048251674</v>
+        <v>3174.441048251676</v>
       </c>
       <c r="Y20" t="n">
-        <v>2784.301716275862</v>
+        <v>2784.301716275864</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J21" t="n">
-        <v>167.3045479414941</v>
+        <v>292.1346729284988</v>
       </c>
       <c r="K21" t="n">
-        <v>366.8518364815409</v>
+        <v>535.0554657807185</v>
       </c>
       <c r="L21" t="n">
-        <v>681.4903327437114</v>
+        <v>849.693962042889</v>
       </c>
       <c r="M21" t="n">
-        <v>1068.015485514818</v>
+        <v>1236.219114813996</v>
       </c>
       <c r="N21" t="n">
-        <v>1855.359598011705</v>
+        <v>1647.383083153214</v>
       </c>
       <c r="O21" t="n">
-        <v>2209.274506442037</v>
+        <v>2001.297991583547</v>
       </c>
       <c r="P21" t="n">
-        <v>2473.989355903587</v>
+        <v>2266.012841045097</v>
       </c>
       <c r="Q21" t="n">
         <v>2601.025026013057</v>
@@ -5934,28 +5934,28 @@
         <v>1757.786774508076</v>
       </c>
       <c r="R22" t="n">
-        <v>1658.734594762382</v>
+        <v>1757.786774508076</v>
       </c>
       <c r="S22" t="n">
-        <v>1463.47450071483</v>
+        <v>1757.786774508076</v>
       </c>
       <c r="T22" t="n">
-        <v>1240.831579264033</v>
+        <v>1535.14385305728</v>
       </c>
       <c r="U22" t="n">
-        <v>1240.831579264033</v>
+        <v>1246.029799297557</v>
       </c>
       <c r="V22" t="n">
-        <v>986.1470910581464</v>
+        <v>991.3453110916704</v>
       </c>
       <c r="W22" t="n">
-        <v>696.7299210211859</v>
+        <v>701.9281410547098</v>
       </c>
       <c r="X22" t="n">
-        <v>468.7403701231685</v>
+        <v>473.9385901566925</v>
       </c>
       <c r="Y22" t="n">
-        <v>247.9477909796384</v>
+        <v>253.1460110131624</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J23" t="n">
-        <v>247.1253245823088</v>
+        <v>414.5309736026618</v>
       </c>
       <c r="K23" t="n">
-        <v>844.8460144959279</v>
+        <v>1012.251663516281</v>
       </c>
       <c r="L23" t="n">
-        <v>1638.648011954867</v>
+        <v>1806.053660975221</v>
       </c>
       <c r="M23" t="n">
-        <v>2538.512228871288</v>
+        <v>2260.899479733737</v>
       </c>
       <c r="N23" t="n">
-        <v>3438.305192050678</v>
+        <v>2854.604825659706</v>
       </c>
       <c r="O23" t="n">
-        <v>4242.766534225867</v>
+        <v>3659.066167834895</v>
       </c>
       <c r="P23" t="n">
-        <v>4573.10057390415</v>
+        <v>4307.980928602947</v>
       </c>
       <c r="Q23" t="n">
-        <v>4783.12638513359</v>
+        <v>4718.067129459338</v>
       </c>
       <c r="R23" t="n">
         <v>4813.994185458401</v>
@@ -6068,25 +6068,25 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J24" t="n">
-        <v>167.3045479414941</v>
+        <v>292.1346729284988</v>
       </c>
       <c r="K24" t="n">
-        <v>366.8518364815409</v>
+        <v>491.6819614685456</v>
       </c>
       <c r="L24" t="n">
-        <v>1048.622274594136</v>
+        <v>806.3204577307162</v>
       </c>
       <c r="M24" t="n">
-        <v>1435.147427365243</v>
+        <v>1192.845610501823</v>
       </c>
       <c r="N24" t="n">
-        <v>1846.311395704461</v>
+        <v>1604.009578841041</v>
       </c>
       <c r="O24" t="n">
-        <v>2200.226304134793</v>
+        <v>1957.924487271374</v>
       </c>
       <c r="P24" t="n">
-        <v>2473.989355903587</v>
+        <v>2266.012841045097</v>
       </c>
       <c r="Q24" t="n">
         <v>2601.025026013057</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1129.577705730147</v>
+        <v>559.1184098275031</v>
       </c>
       <c r="C25" t="n">
-        <v>960.6415228022404</v>
+        <v>559.1184098275031</v>
       </c>
       <c r="D25" t="n">
-        <v>810.5248833899046</v>
+        <v>559.1184098275031</v>
       </c>
       <c r="E25" t="n">
-        <v>662.6117898075115</v>
+        <v>559.1184098275031</v>
       </c>
       <c r="F25" t="n">
-        <v>515.7218423096011</v>
+        <v>412.2284623295927</v>
       </c>
       <c r="G25" t="n">
-        <v>347.8139127859468</v>
+        <v>244.3205328059384</v>
       </c>
       <c r="H25" t="n">
-        <v>199.7732636891764</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="I25" t="n">
         <v>96.27988370916803</v>
@@ -6174,25 +6174,25 @@
         <v>1658.734594762382</v>
       </c>
       <c r="S25" t="n">
-        <v>1658.734594762382</v>
+        <v>1614.977043280869</v>
       </c>
       <c r="T25" t="n">
-        <v>1532.018749703917</v>
+        <v>1392.334121830073</v>
       </c>
       <c r="U25" t="n">
-        <v>1532.018749703917</v>
+        <v>1103.220068070351</v>
       </c>
       <c r="V25" t="n">
-        <v>1532.018749703917</v>
+        <v>848.5355798644637</v>
       </c>
       <c r="W25" t="n">
-        <v>1532.018749703917</v>
+        <v>559.1184098275031</v>
       </c>
       <c r="X25" t="n">
-        <v>1532.018749703917</v>
+        <v>559.1184098275031</v>
       </c>
       <c r="Y25" t="n">
-        <v>1311.226170560387</v>
+        <v>559.1184098275031</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2397.701876211742</v>
+        <v>2397.70187621174</v>
       </c>
       <c r="C26" t="n">
-        <v>2028.739359271331</v>
+        <v>2028.739359271329</v>
       </c>
       <c r="D26" t="n">
-        <v>1670.473660664581</v>
+        <v>1670.473660664579</v>
       </c>
       <c r="E26" t="n">
-        <v>1284.685408066337</v>
+        <v>1284.685408066335</v>
       </c>
       <c r="F26" t="n">
-        <v>873.699503276729</v>
+        <v>873.6995032767272</v>
       </c>
       <c r="G26" t="n">
-        <v>458.1698336863387</v>
+        <v>458.1698336863374</v>
       </c>
       <c r="H26" t="n">
-        <v>155.9037347524506</v>
+        <v>155.9037347524499</v>
       </c>
       <c r="I26" t="n">
         <v>96.27988370916803</v>
@@ -6229,25 +6229,25 @@
         <v>414.5309736026618</v>
       </c>
       <c r="K26" t="n">
-        <v>691.3477050708277</v>
+        <v>1012.251663516281</v>
       </c>
       <c r="L26" t="n">
-        <v>1485.149702529767</v>
+        <v>1806.053660975221</v>
       </c>
       <c r="M26" t="n">
-        <v>2385.013919446188</v>
+        <v>2260.899479733737</v>
       </c>
       <c r="N26" t="n">
-        <v>3284.806882625578</v>
+        <v>2854.604825659706</v>
       </c>
       <c r="O26" t="n">
-        <v>4089.268224800767</v>
+        <v>3659.066167834895</v>
       </c>
       <c r="P26" t="n">
-        <v>4419.60226447905</v>
+        <v>4307.980928602947</v>
       </c>
       <c r="Q26" t="n">
-        <v>4783.12638513359</v>
+        <v>4718.067129459338</v>
       </c>
       <c r="R26" t="n">
         <v>4813.994185458401</v>
@@ -6256,22 +6256,22 @@
         <v>4693.284629101619</v>
       </c>
       <c r="T26" t="n">
-        <v>4485.305403407436</v>
+        <v>4485.305403407434</v>
       </c>
       <c r="U26" t="n">
-        <v>4231.738349126441</v>
+        <v>4231.738349126439</v>
       </c>
       <c r="V26" t="n">
-        <v>3900.67546178287</v>
+        <v>3900.675461782868</v>
       </c>
       <c r="W26" t="n">
-        <v>3547.906806512756</v>
+        <v>3547.906806512754</v>
       </c>
       <c r="X26" t="n">
-        <v>3174.441048251676</v>
+        <v>3174.441048251674</v>
       </c>
       <c r="Y26" t="n">
-        <v>2784.301716275864</v>
+        <v>2784.301716275862</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J27" t="n">
-        <v>167.3045479414941</v>
+        <v>292.1346729284988</v>
       </c>
       <c r="K27" t="n">
-        <v>366.8518364815409</v>
+        <v>491.6819614685456</v>
       </c>
       <c r="L27" t="n">
-        <v>742.3923359478423</v>
+        <v>806.3204577307162</v>
       </c>
       <c r="M27" t="n">
-        <v>1128.917488718949</v>
+        <v>1192.845610501823</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.081457058167</v>
+        <v>1604.009578841041</v>
       </c>
       <c r="O27" t="n">
-        <v>1893.9963654885</v>
+        <v>1957.924487271374</v>
       </c>
       <c r="P27" t="n">
-        <v>2473.989355903587</v>
+        <v>2266.012841045097</v>
       </c>
       <c r="Q27" t="n">
         <v>2601.025026013057</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>253.1460110131624</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="C28" t="n">
-        <v>253.1460110131624</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="D28" t="n">
-        <v>243.1698312070784</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="E28" t="n">
-        <v>243.1698312070784</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="F28" t="n">
         <v>96.27988370916803</v>
@@ -6411,25 +6411,25 @@
         <v>1757.786774508076</v>
       </c>
       <c r="S28" t="n">
-        <v>1757.786774508076</v>
+        <v>1562.526680460524</v>
       </c>
       <c r="T28" t="n">
-        <v>1535.14385305728</v>
+        <v>1339.883759009727</v>
       </c>
       <c r="U28" t="n">
-        <v>1246.029799297557</v>
+        <v>1089.163671993563</v>
       </c>
       <c r="V28" t="n">
-        <v>991.3453110916704</v>
+        <v>834.4791837876762</v>
       </c>
       <c r="W28" t="n">
-        <v>701.9281410547098</v>
+        <v>545.0620137507156</v>
       </c>
       <c r="X28" t="n">
-        <v>473.9385901566925</v>
+        <v>317.0724628526982</v>
       </c>
       <c r="Y28" t="n">
-        <v>253.1460110131624</v>
+        <v>96.27988370916803</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2397.701876211741</v>
+        <v>2397.701876211742</v>
       </c>
       <c r="C29" t="n">
-        <v>2028.73935927133</v>
+        <v>2028.739359271331</v>
       </c>
       <c r="D29" t="n">
         <v>1670.47366066458</v>
@@ -6451,10 +6451,10 @@
         <v>1284.685408066336</v>
       </c>
       <c r="F29" t="n">
-        <v>873.6995032767283</v>
+        <v>873.6995032767281</v>
       </c>
       <c r="G29" t="n">
-        <v>458.169833686338</v>
+        <v>458.1698336863379</v>
       </c>
       <c r="H29" t="n">
         <v>155.9037347524499</v>
@@ -6463,28 +6463,28 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J29" t="n">
-        <v>247.1253245823088</v>
+        <v>414.5309736026618</v>
       </c>
       <c r="K29" t="n">
-        <v>844.8460144959279</v>
+        <v>1012.251663516281</v>
       </c>
       <c r="L29" t="n">
-        <v>1638.648011954867</v>
+        <v>1806.053660975221</v>
       </c>
       <c r="M29" t="n">
-        <v>2538.512228871288</v>
+        <v>2260.899479733737</v>
       </c>
       <c r="N29" t="n">
-        <v>3438.305192050678</v>
+        <v>2854.604825659706</v>
       </c>
       <c r="O29" t="n">
-        <v>4242.766534225867</v>
+        <v>3659.066167834895</v>
       </c>
       <c r="P29" t="n">
-        <v>4583.232025030504</v>
+        <v>4307.980928602947</v>
       </c>
       <c r="Q29" t="n">
-        <v>4783.12638513359</v>
+        <v>4718.067129459338</v>
       </c>
       <c r="R29" t="n">
         <v>4813.994185458401</v>
@@ -6493,22 +6493,22 @@
         <v>4693.284629101619</v>
       </c>
       <c r="T29" t="n">
-        <v>4485.305403407435</v>
+        <v>4485.305403407436</v>
       </c>
       <c r="U29" t="n">
-        <v>4231.73834912644</v>
+        <v>4231.738349126441</v>
       </c>
       <c r="V29" t="n">
-        <v>3900.675461782869</v>
+        <v>3900.67546178287</v>
       </c>
       <c r="W29" t="n">
-        <v>3547.906806512755</v>
+        <v>3547.906806512756</v>
       </c>
       <c r="X29" t="n">
-        <v>3174.441048251675</v>
+        <v>3174.441048251676</v>
       </c>
       <c r="Y29" t="n">
-        <v>2784.301716275863</v>
+        <v>2784.301716275864</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J30" t="n">
-        <v>167.3045479414941</v>
+        <v>292.1346729284988</v>
       </c>
       <c r="K30" t="n">
-        <v>366.8518364815409</v>
+        <v>491.6819614685456</v>
       </c>
       <c r="L30" t="n">
-        <v>681.4903327437114</v>
+        <v>806.3204577307162</v>
       </c>
       <c r="M30" t="n">
-        <v>1068.015485514818</v>
+        <v>1192.845610501823</v>
       </c>
       <c r="N30" t="n">
-        <v>1855.359598011705</v>
+        <v>1604.009578841041</v>
       </c>
       <c r="O30" t="n">
-        <v>2209.274506442037</v>
+        <v>1957.924487271374</v>
       </c>
       <c r="P30" t="n">
-        <v>2473.989355903587</v>
+        <v>2235.974377226892</v>
       </c>
       <c r="Q30" t="n">
-        <v>2601.025026013057</v>
+        <v>2570.986562194853</v>
       </c>
       <c r="R30" t="n">
         <v>2601.025026013057</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>285.8754678636275</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="C31" t="n">
-        <v>116.9392849357206</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="D31" t="n">
-        <v>116.9392849357206</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="E31" t="n">
-        <v>116.9392849357206</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="F31" t="n">
-        <v>116.9392849357206</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="G31" t="n">
         <v>96.27988370916803</v>
@@ -6648,7 +6648,7 @@
         <v>1757.786774508076</v>
       </c>
       <c r="S31" t="n">
-        <v>1562.526680460523</v>
+        <v>1562.526680460524</v>
       </c>
       <c r="T31" t="n">
         <v>1339.883759009727</v>
@@ -6663,10 +6663,10 @@
         <v>506.6680470071576</v>
       </c>
       <c r="X31" t="n">
-        <v>506.6680470071576</v>
+        <v>317.0724628526982</v>
       </c>
       <c r="Y31" t="n">
-        <v>285.8754678636275</v>
+        <v>96.27988370916803</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2397.701876211742</v>
+        <v>2397.70187621174</v>
       </c>
       <c r="C32" t="n">
-        <v>2028.739359271331</v>
+        <v>2028.739359271329</v>
       </c>
       <c r="D32" t="n">
-        <v>1670.473660664581</v>
+        <v>1670.473660664579</v>
       </c>
       <c r="E32" t="n">
-        <v>1284.685408066337</v>
+        <v>1284.685408066335</v>
       </c>
       <c r="F32" t="n">
-        <v>873.6995032767286</v>
+        <v>873.6995032767272</v>
       </c>
       <c r="G32" t="n">
-        <v>458.1698336863379</v>
+        <v>458.1698336863374</v>
       </c>
       <c r="H32" t="n">
         <v>155.9037347524499</v>
@@ -6700,28 +6700,28 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J32" t="n">
-        <v>247.1253245823088</v>
+        <v>414.5309736026618</v>
       </c>
       <c r="K32" t="n">
-        <v>844.8460144959279</v>
+        <v>691.3477050708278</v>
       </c>
       <c r="L32" t="n">
-        <v>1638.648011954867</v>
+        <v>1485.149702529768</v>
       </c>
       <c r="M32" t="n">
-        <v>2538.512228871288</v>
+        <v>2385.013919446189</v>
       </c>
       <c r="N32" t="n">
-        <v>3438.305192050678</v>
+        <v>3284.806882625579</v>
       </c>
       <c r="O32" t="n">
-        <v>4242.766534225867</v>
+        <v>4089.268224800768</v>
       </c>
       <c r="P32" t="n">
-        <v>4583.232025030504</v>
+        <v>4518.172769356252</v>
       </c>
       <c r="Q32" t="n">
-        <v>4783.12638513359</v>
+        <v>4718.067129459338</v>
       </c>
       <c r="R32" t="n">
         <v>4813.994185458401</v>
@@ -6730,22 +6730,22 @@
         <v>4693.284629101619</v>
       </c>
       <c r="T32" t="n">
-        <v>4485.305403407436</v>
+        <v>4485.305403407434</v>
       </c>
       <c r="U32" t="n">
-        <v>4231.738349126441</v>
+        <v>4231.738349126439</v>
       </c>
       <c r="V32" t="n">
-        <v>3900.67546178287</v>
+        <v>3900.675461782868</v>
       </c>
       <c r="W32" t="n">
-        <v>3547.906806512756</v>
+        <v>3547.906806512754</v>
       </c>
       <c r="X32" t="n">
-        <v>3174.441048251676</v>
+        <v>3174.441048251674</v>
       </c>
       <c r="Y32" t="n">
-        <v>2784.301716275864</v>
+        <v>2784.301716275862</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J33" t="n">
-        <v>167.3045479414941</v>
+        <v>292.1346729284988</v>
       </c>
       <c r="K33" t="n">
-        <v>366.8518364815409</v>
+        <v>535.0554657807185</v>
       </c>
       <c r="L33" t="n">
-        <v>681.4903327437114</v>
+        <v>849.693962042889</v>
       </c>
       <c r="M33" t="n">
-        <v>1068.015485514818</v>
+        <v>1236.219114813996</v>
       </c>
       <c r="N33" t="n">
-        <v>1855.359598011705</v>
+        <v>1647.383083153214</v>
       </c>
       <c r="O33" t="n">
-        <v>2209.274506442037</v>
+        <v>2001.297991583547</v>
       </c>
       <c r="P33" t="n">
-        <v>2473.989355903587</v>
+        <v>2266.012841045097</v>
       </c>
       <c r="Q33" t="n">
         <v>2601.025026013057</v>
@@ -6882,28 +6882,28 @@
         <v>1757.786774508076</v>
       </c>
       <c r="R34" t="n">
-        <v>1757.786774508076</v>
+        <v>1658.734594762382</v>
       </c>
       <c r="S34" t="n">
-        <v>1562.526680460523</v>
+        <v>1463.47450071483</v>
       </c>
       <c r="T34" t="n">
-        <v>1339.883759009727</v>
+        <v>1240.831579264034</v>
       </c>
       <c r="U34" t="n">
-        <v>1050.769705250005</v>
+        <v>1240.831579264034</v>
       </c>
       <c r="V34" t="n">
-        <v>796.0852170441182</v>
+        <v>986.1470910581469</v>
       </c>
       <c r="W34" t="n">
-        <v>506.6680470071576</v>
+        <v>696.7299210211863</v>
       </c>
       <c r="X34" t="n">
-        <v>278.6784961091402</v>
+        <v>468.740370123169</v>
       </c>
       <c r="Y34" t="n">
-        <v>96.27988370916803</v>
+        <v>247.9477909796389</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2397.70187621174</v>
+        <v>2397.701876211742</v>
       </c>
       <c r="C35" t="n">
-        <v>2028.739359271329</v>
+        <v>2028.73935927133</v>
       </c>
       <c r="D35" t="n">
-        <v>1670.473660664579</v>
+        <v>1670.47366066458</v>
       </c>
       <c r="E35" t="n">
         <v>1284.685408066335</v>
       </c>
       <c r="F35" t="n">
-        <v>873.6995032767272</v>
+        <v>873.6995032767281</v>
       </c>
       <c r="G35" t="n">
-        <v>458.1698336863374</v>
+        <v>458.1698336863379</v>
       </c>
       <c r="H35" t="n">
-        <v>155.90373475245</v>
+        <v>155.9037347524499</v>
       </c>
       <c r="I35" t="n">
         <v>96.27988370916803</v>
       </c>
       <c r="J35" t="n">
-        <v>247.1253245823088</v>
+        <v>414.5309736026618</v>
       </c>
       <c r="K35" t="n">
-        <v>844.8460144959279</v>
+        <v>1012.251663516281</v>
       </c>
       <c r="L35" t="n">
-        <v>1638.648011954867</v>
+        <v>1806.053660975221</v>
       </c>
       <c r="M35" t="n">
-        <v>2538.512228871288</v>
+        <v>2387.78531764818</v>
       </c>
       <c r="N35" t="n">
-        <v>3129.855922087263</v>
+        <v>2854.604825659706</v>
       </c>
       <c r="O35" t="n">
-        <v>3934.317264262452</v>
+        <v>3659.066167834895</v>
       </c>
       <c r="P35" t="n">
-        <v>4583.232025030504</v>
+        <v>4307.980928602947</v>
       </c>
       <c r="Q35" t="n">
-        <v>4783.12638513359</v>
+        <v>4718.067129459338</v>
       </c>
       <c r="R35" t="n">
         <v>4813.994185458401</v>
@@ -6967,22 +6967,22 @@
         <v>4693.284629101619</v>
       </c>
       <c r="T35" t="n">
-        <v>4485.305403407434</v>
+        <v>4485.305403407435</v>
       </c>
       <c r="U35" t="n">
-        <v>4231.738349126439</v>
+        <v>4231.73834912644</v>
       </c>
       <c r="V35" t="n">
-        <v>3900.675461782868</v>
+        <v>3900.675461782869</v>
       </c>
       <c r="W35" t="n">
-        <v>3547.906806512754</v>
+        <v>3547.906806512755</v>
       </c>
       <c r="X35" t="n">
-        <v>3174.441048251674</v>
+        <v>3174.441048251676</v>
       </c>
       <c r="Y35" t="n">
-        <v>2784.301716275862</v>
+        <v>2784.301716275864</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J36" t="n">
-        <v>167.3045479414941</v>
+        <v>292.1346729284988</v>
       </c>
       <c r="K36" t="n">
-        <v>366.8518364815409</v>
+        <v>491.6819614685456</v>
       </c>
       <c r="L36" t="n">
-        <v>681.4903327437114</v>
+        <v>806.3204577307162</v>
       </c>
       <c r="M36" t="n">
-        <v>1068.015485514818</v>
+        <v>1192.845610501823</v>
       </c>
       <c r="N36" t="n">
-        <v>1479.179453854036</v>
+        <v>1604.009578841041</v>
       </c>
       <c r="O36" t="n">
-        <v>1833.094362284369</v>
+        <v>1957.924487271374</v>
       </c>
       <c r="P36" t="n">
-        <v>2413.087352699456</v>
+        <v>2266.012841045097</v>
       </c>
       <c r="Q36" t="n">
         <v>2601.025026013057</v>
@@ -7122,7 +7122,7 @@
         <v>1757.786774508076</v>
       </c>
       <c r="S37" t="n">
-        <v>1562.526680460523</v>
+        <v>1562.526680460524</v>
       </c>
       <c r="T37" t="n">
         <v>1339.883759009727</v>
@@ -7156,13 +7156,13 @@
         <v>2028.739359271331</v>
       </c>
       <c r="D38" t="n">
-        <v>1670.47366066458</v>
+        <v>1670.473660664581</v>
       </c>
       <c r="E38" t="n">
-        <v>1284.685408066336</v>
+        <v>1284.685408066337</v>
       </c>
       <c r="F38" t="n">
-        <v>873.6995032767283</v>
+        <v>873.6995032767286</v>
       </c>
       <c r="G38" t="n">
         <v>458.1698336863379</v>
@@ -7174,28 +7174,28 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J38" t="n">
-        <v>247.1253245823088</v>
+        <v>414.5309736026618</v>
       </c>
       <c r="K38" t="n">
-        <v>844.8460144959279</v>
+        <v>1012.251663516281</v>
       </c>
       <c r="L38" t="n">
-        <v>1638.648011954867</v>
+        <v>1806.053660975221</v>
       </c>
       <c r="M38" t="n">
-        <v>2230.062958907874</v>
+        <v>2705.917877891642</v>
       </c>
       <c r="N38" t="n">
-        <v>3129.855922087263</v>
+        <v>3231.597005109824</v>
       </c>
       <c r="O38" t="n">
-        <v>3934.317264262452</v>
+        <v>3659.066167834895</v>
       </c>
       <c r="P38" t="n">
-        <v>4583.232025030504</v>
+        <v>4307.980928602947</v>
       </c>
       <c r="Q38" t="n">
-        <v>4783.12638513359</v>
+        <v>4718.067129459338</v>
       </c>
       <c r="R38" t="n">
         <v>4813.994185458401</v>
@@ -7204,13 +7204,13 @@
         <v>4693.284629101619</v>
       </c>
       <c r="T38" t="n">
-        <v>4485.305403407435</v>
+        <v>4485.305403407436</v>
       </c>
       <c r="U38" t="n">
-        <v>4231.73834912644</v>
+        <v>4231.738349126441</v>
       </c>
       <c r="V38" t="n">
-        <v>3900.675461782869</v>
+        <v>3900.67546178287</v>
       </c>
       <c r="W38" t="n">
         <v>3547.906806512756</v>
@@ -7253,25 +7253,25 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J39" t="n">
-        <v>167.3045479414941</v>
+        <v>292.1346729284988</v>
       </c>
       <c r="K39" t="n">
-        <v>366.8518364815409</v>
+        <v>491.6819614685456</v>
       </c>
       <c r="L39" t="n">
-        <v>681.4903327437114</v>
+        <v>806.3204577307162</v>
       </c>
       <c r="M39" t="n">
-        <v>1444.195629672487</v>
+        <v>1192.845610501823</v>
       </c>
       <c r="N39" t="n">
-        <v>1855.359598011705</v>
+        <v>1604.009578841041</v>
       </c>
       <c r="O39" t="n">
-        <v>2209.274506442037</v>
+        <v>1957.924487271374</v>
       </c>
       <c r="P39" t="n">
-        <v>2473.989355903587</v>
+        <v>2266.012841045097</v>
       </c>
       <c r="Q39" t="n">
         <v>2601.025026013057</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.0139436586396</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="C40" t="n">
-        <v>411.0777607307327</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="D40" t="n">
-        <v>411.0777607307327</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="E40" t="n">
-        <v>411.0777607307327</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="F40" t="n">
-        <v>264.1878132328224</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="G40" t="n">
         <v>96.27988370916803</v>
@@ -7356,28 +7356,28 @@
         <v>1757.786774508076</v>
       </c>
       <c r="R40" t="n">
-        <v>1658.734594762382</v>
+        <v>1757.786774508076</v>
       </c>
       <c r="S40" t="n">
-        <v>1658.734594762382</v>
+        <v>1562.526680460524</v>
       </c>
       <c r="T40" t="n">
-        <v>1658.734594762382</v>
+        <v>1378.277725753285</v>
       </c>
       <c r="U40" t="n">
-        <v>1369.62054100266</v>
+        <v>1089.163671993563</v>
       </c>
       <c r="V40" t="n">
-        <v>1114.936052796773</v>
+        <v>834.4791837876762</v>
       </c>
       <c r="W40" t="n">
-        <v>989.6519593868967</v>
+        <v>545.0620137507156</v>
       </c>
       <c r="X40" t="n">
-        <v>761.6624084888794</v>
+        <v>317.0724628526982</v>
       </c>
       <c r="Y40" t="n">
-        <v>761.6624084888794</v>
+        <v>96.27988370916803</v>
       </c>
     </row>
     <row r="41">
@@ -7417,22 +7417,22 @@
         <v>1012.251663516281</v>
       </c>
       <c r="L41" t="n">
-        <v>1552.980356406012</v>
+        <v>1487.921100731759</v>
       </c>
       <c r="M41" t="n">
-        <v>2452.844573322433</v>
+        <v>2387.78531764818</v>
       </c>
       <c r="N41" t="n">
-        <v>2919.664081333958</v>
+        <v>2854.604825659706</v>
       </c>
       <c r="O41" t="n">
-        <v>3724.125423509147</v>
+        <v>3659.066167834895</v>
       </c>
       <c r="P41" t="n">
-        <v>4373.040184277199</v>
+        <v>4307.980928602947</v>
       </c>
       <c r="Q41" t="n">
-        <v>4783.12638513359</v>
+        <v>4718.067129459338</v>
       </c>
       <c r="R41" t="n">
         <v>4813.994185458401</v>
@@ -7490,28 +7490,28 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J42" t="n">
-        <v>167.3045479414941</v>
+        <v>292.1346729284988</v>
       </c>
       <c r="K42" t="n">
-        <v>628.6724211239937</v>
+        <v>712.9935168210045</v>
       </c>
       <c r="L42" t="n">
-        <v>943.3109173861642</v>
+        <v>1027.632013083175</v>
       </c>
       <c r="M42" t="n">
-        <v>1329.836070157271</v>
+        <v>1414.157165854282</v>
       </c>
       <c r="N42" t="n">
-        <v>1741.000038496489</v>
+        <v>1825.3211341935</v>
       </c>
       <c r="O42" t="n">
-        <v>2094.914946926822</v>
+        <v>2179.236042623833</v>
       </c>
       <c r="P42" t="n">
-        <v>2359.629796388372</v>
+        <v>2443.950892085383</v>
       </c>
       <c r="Q42" t="n">
-        <v>2601.025026013057</v>
+        <v>2570.986562194853</v>
       </c>
       <c r="R42" t="n">
         <v>2601.025026013057</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>581.1646452574996</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="C43" t="n">
-        <v>412.2284623295927</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="D43" t="n">
-        <v>412.2284623295927</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="E43" t="n">
-        <v>412.2284623295927</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="F43" t="n">
-        <v>412.2284623295927</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="G43" t="n">
-        <v>244.3205328059384</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="H43" t="n">
         <v>96.27988370916803</v>
@@ -7593,28 +7593,28 @@
         <v>1757.786774508076</v>
       </c>
       <c r="R43" t="n">
-        <v>1658.734594762382</v>
+        <v>1757.786774508076</v>
       </c>
       <c r="S43" t="n">
-        <v>1463.47450071483</v>
+        <v>1562.526680460524</v>
       </c>
       <c r="T43" t="n">
-        <v>1240.831579264033</v>
+        <v>1339.883759009727</v>
       </c>
       <c r="U43" t="n">
-        <v>951.717525504311</v>
+        <v>1050.769705250005</v>
       </c>
       <c r="V43" t="n">
-        <v>951.717525504311</v>
+        <v>796.0852170441182</v>
       </c>
       <c r="W43" t="n">
-        <v>801.9572244010297</v>
+        <v>506.6680470071576</v>
       </c>
       <c r="X43" t="n">
-        <v>801.9572244010297</v>
+        <v>278.6784961091402</v>
       </c>
       <c r="Y43" t="n">
-        <v>581.1646452574996</v>
+        <v>96.27988370916803</v>
       </c>
     </row>
     <row r="44">
@@ -7654,10 +7654,10 @@
         <v>1012.251663516281</v>
       </c>
       <c r="L44" t="n">
-        <v>1806.05366097522</v>
+        <v>1806.053660975221</v>
       </c>
       <c r="M44" t="n">
-        <v>2387.78531764818</v>
+        <v>2260.899479733737</v>
       </c>
       <c r="N44" t="n">
         <v>2854.604825659706</v>
@@ -7730,22 +7730,22 @@
         <v>167.3045479414941</v>
       </c>
       <c r="K45" t="n">
-        <v>628.6724211239937</v>
+        <v>366.8518364815409</v>
       </c>
       <c r="L45" t="n">
-        <v>943.3109173861642</v>
+        <v>681.4903327437114</v>
       </c>
       <c r="M45" t="n">
-        <v>1329.836070157271</v>
+        <v>1068.015485514818</v>
       </c>
       <c r="N45" t="n">
-        <v>1741.000038496489</v>
+        <v>1479.179453854036</v>
       </c>
       <c r="O45" t="n">
-        <v>2094.914946926822</v>
+        <v>1833.094362284369</v>
       </c>
       <c r="P45" t="n">
-        <v>2359.629796388372</v>
+        <v>2413.087352699456</v>
       </c>
       <c r="Q45" t="n">
         <v>2601.025026013057</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>857.148142822232</v>
+        <v>433.1239961607293</v>
       </c>
       <c r="C46" t="n">
-        <v>857.148142822232</v>
+        <v>264.1878132328224</v>
       </c>
       <c r="D46" t="n">
-        <v>707.0315034098962</v>
+        <v>264.1878132328224</v>
       </c>
       <c r="E46" t="n">
-        <v>559.1184098275031</v>
+        <v>264.1878132328224</v>
       </c>
       <c r="F46" t="n">
-        <v>412.2284623295927</v>
+        <v>264.1878132328224</v>
       </c>
       <c r="G46" t="n">
-        <v>244.3205328059384</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="H46" t="n">
         <v>96.27988370916803</v>
@@ -7833,25 +7833,25 @@
         <v>1757.786774508076</v>
       </c>
       <c r="S46" t="n">
-        <v>1757.786774508076</v>
+        <v>1562.526680460524</v>
       </c>
       <c r="T46" t="n">
-        <v>1535.14385305728</v>
+        <v>1562.526680460524</v>
       </c>
       <c r="U46" t="n">
-        <v>1401.24980106508</v>
+        <v>1426.007784445124</v>
       </c>
       <c r="V46" t="n">
-        <v>1146.565312859193</v>
+        <v>1171.323296239237</v>
       </c>
       <c r="W46" t="n">
-        <v>857.148142822232</v>
+        <v>881.9061262022768</v>
       </c>
       <c r="X46" t="n">
-        <v>857.148142822232</v>
+        <v>653.9165753042595</v>
       </c>
       <c r="Y46" t="n">
-        <v>857.148142822232</v>
+        <v>433.1239961607293</v>
       </c>
     </row>
   </sheetData>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M6" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8546,13 +8546,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>185.8815939223662</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8698,19 +8698,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>128.1675130448902</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>212.7676783834465</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>13.46973787269525</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>115.5147065810258</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>15.1797871666698</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,16 +8926,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>108.4818031833564</v>
       </c>
       <c r="M14" t="n">
-        <v>137.9486143378682</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -8947,10 +8947,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>9.139598290144818</v>
       </c>
       <c r="K15" t="n">
-        <v>9.139598290145443</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>15.1797871666698</v>
+        <v>15.17978716666977</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9172,10 +9172,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>137.9486143378682</v>
+        <v>128.1675130448918</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9184,10 +9184,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>169.9026558577556</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>43.81162051734628</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>15.1797871666698</v>
+        <v>15.17978716666977</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>128.1675130448921</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9421,10 +9421,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>137.9486143378682</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>43.81162051734626</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9491,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>379.9799435936048</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>15.1797871666698</v>
+        <v>15.17978716666977</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9646,22 +9646,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>128.1675130448921</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>10.23378901651913</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>9.139598290145614</v>
+        <v>43.81162051734628</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>15.1797871666698</v>
+        <v>15.17978716666977</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,28 +9877,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>128.1675130448921</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>165.2825864156102</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>61.51717495366762</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>43.81162051734628</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>15.1797871666698</v>
+        <v>15.17978716666977</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10120,22 +10120,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>128.1675130448921</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>10.23378901651836</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10202,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>379.9799435936048</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>13.4697378726953</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>15.1797871666698</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10366,13 +10366,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>10.23378901651836</v>
+        <v>99.56616654262649</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>43.81162051734626</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10439,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>379.9799435936048</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>15.1797871666698</v>
+        <v>15.17978716666977</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10594,10 +10594,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>128.1675130448918</v>
       </c>
       <c r="N35" t="n">
-        <v>125.7820052570195</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10606,10 +10606,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>43.81162051734628</v>
       </c>
       <c r="Q36" t="n">
-        <v>61.51717495366739</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>15.1797871666698</v>
+        <v>15.17978716666977</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10831,22 +10831,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>137.9486143378682</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>59.45416081480477</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10910,7 +10910,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>379.9799435936048</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>43.81162051734628</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>15.1797871666698</v>
+        <v>15.17978716666977</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>162.0316139754921</v>
+        <v>96.31519410250979</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>223.5470256085443</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>115.5147065810258</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>15.1797871666698</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,10 +11305,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>128.1675130448923</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>128.1675130448921</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11378,7 +11378,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>115.5147065810258</v>
+        <v>61.51717495366739</v>
       </c>
       <c r="R45" t="n">
-        <v>15.1797871666698</v>
+        <v>15.17978716666977</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>143.5534633970912</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>43.41750986649593</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.2288502284178</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>102.4584461802083</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>98.0616579482369</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>220.4164922362883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>74.93502225674473</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>146.5602426058027</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>102.4584461802083</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>98.0616579482369</v>
       </c>
       <c r="S16" t="n">
-        <v>193.3074931070766</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>204.2388773045402</v>
       </c>
       <c r="U16" t="n">
-        <v>286.222913222125</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>98.0616579482369</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.8420072580597</v>
       </c>
       <c r="U19" t="n">
-        <v>286.222913222125</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>91.22389240554085</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29.68075198417162</v>
+        <v>24.53451415098291</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>98.0616579482369</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>193.3074931070766</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.222913222125</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>102.4584461802083</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,25 +24414,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>193.3074931070766</v>
+        <v>149.9875171403787</v>
       </c>
       <c r="T25" t="n">
-        <v>94.96780562840796</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.222913222125</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24606,13 +24606,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>138.7390550101892</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.2288502284178</v>
@@ -24651,13 +24651,13 @@
         <v>98.0616579482369</v>
       </c>
       <c r="S28" t="n">
-        <v>193.3074931070766</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>38.01002707612255</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>145.7760430141308</v>
+        <v>166.2288502284178</v>
       </c>
       <c r="H31" t="n">
         <v>146.5602426058027</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>38.01002707612236</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>29.68075198417117</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>98.0616579482369</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.222913222125</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>38.01002707612233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25560,10 +25560,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.2288502284178</v>
       </c>
       <c r="H40" t="n">
         <v>146.5602426058027</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>98.0616579482369</v>
       </c>
       <c r="S40" t="n">
-        <v>193.3074931070766</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>220.4164922362883</v>
+        <v>38.01002707612247</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>162.4917458608138</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.2288502284178</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>146.5602426058027</v>
       </c>
       <c r="I43" t="n">
         <v>102.4584461802083</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>98.0616579482369</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>138.2603002443426</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>38.01002707612233</v>
       </c>
     </row>
     <row r="44">
@@ -26025,22 +26025,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>146.5602426058027</v>
       </c>
       <c r="I46" t="n">
         <v>102.4584461802083</v>
@@ -26073,13 +26073,13 @@
         <v>98.0616579482369</v>
       </c>
       <c r="S46" t="n">
-        <v>193.3074931070766</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>220.4164922362883</v>
       </c>
       <c r="U46" t="n">
-        <v>153.667801749847</v>
+        <v>151.0692061668797</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>691319.8770329265</v>
+        <v>691319.8770329264</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>691319.8770329265</v>
+        <v>691319.8770329263</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>691319.8770329264</v>
+        <v>691319.8770329265</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>691319.8770329265</v>
+        <v>691319.8770329263</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>691319.8770329267</v>
+        <v>691319.8770329265</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>691319.8770329263</v>
+        <v>691319.8770329265</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>691319.8770329263</v>
+        <v>691319.8770329264</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>691319.8770329263</v>
+        <v>691319.8770329264</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>691319.8770329265</v>
+        <v>691319.8770329263</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>759463.6371244618</v>
+      </c>
+      <c r="C2" t="n">
+        <v>759463.6371244617</v>
+      </c>
+      <c r="D2" t="n">
         <v>759463.6371244619</v>
       </c>
-      <c r="C2" t="n">
-        <v>759463.6371244619</v>
-      </c>
-      <c r="D2" t="n">
-        <v>759463.6371244617</v>
-      </c>
       <c r="E2" t="n">
-        <v>729740.7562245053</v>
+        <v>729740.7562245056</v>
       </c>
       <c r="F2" t="n">
-        <v>729740.7562245053</v>
+        <v>729740.7562245058</v>
       </c>
       <c r="G2" t="n">
         <v>729740.7562245055</v>
       </c>
       <c r="H2" t="n">
-        <v>729740.7562245056</v>
+        <v>729740.7562245055</v>
       </c>
       <c r="I2" t="n">
         <v>729740.7562245055</v>
@@ -26340,22 +26340,22 @@
         <v>729740.7562245055</v>
       </c>
       <c r="K2" t="n">
+        <v>729740.7562245054</v>
+      </c>
+      <c r="L2" t="n">
         <v>729740.7562245056</v>
       </c>
-      <c r="L2" t="n">
-        <v>729740.7562245055</v>
-      </c>
       <c r="M2" t="n">
-        <v>729740.7562245051</v>
+        <v>729740.7562245054</v>
       </c>
       <c r="N2" t="n">
-        <v>729740.7562245054</v>
+        <v>729740.7562245053</v>
       </c>
       <c r="O2" t="n">
         <v>729740.7562245054</v>
       </c>
       <c r="P2" t="n">
-        <v>729740.756224505</v>
+        <v>729740.7562245057</v>
       </c>
     </row>
     <row r="3">
@@ -26426,28 +26426,28 @@
         <v>346065.6887052709</v>
       </c>
       <c r="E4" t="n">
-        <v>41260.32764267483</v>
+        <v>41260.32764267481</v>
       </c>
       <c r="F4" t="n">
-        <v>41260.32764267483</v>
+        <v>41260.32764267485</v>
       </c>
       <c r="G4" t="n">
         <v>41260.32764267483</v>
       </c>
       <c r="H4" t="n">
-        <v>41260.32764267483</v>
+        <v>41260.32764267484</v>
       </c>
       <c r="I4" t="n">
-        <v>41260.32764267485</v>
+        <v>41260.32764267484</v>
       </c>
       <c r="J4" t="n">
-        <v>41260.32764267485</v>
+        <v>41260.32764267484</v>
       </c>
       <c r="K4" t="n">
-        <v>41260.32764267483</v>
+        <v>41260.32764267484</v>
       </c>
       <c r="L4" t="n">
-        <v>41260.32764267483</v>
+        <v>41260.32764267482</v>
       </c>
       <c r="M4" t="n">
         <v>41260.32764267483</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>284347.2481238817</v>
+        <v>284347.2481238816</v>
       </c>
       <c r="C6" t="n">
+        <v>365116.6796554292</v>
+      </c>
+      <c r="D6" t="n">
         <v>365116.6796554294</v>
       </c>
-      <c r="D6" t="n">
-        <v>365116.6796554292</v>
-      </c>
       <c r="E6" t="n">
-        <v>-478441.3523447877</v>
+        <v>-479244.6734501917</v>
       </c>
       <c r="F6" t="n">
-        <v>594005.1777162403</v>
+        <v>593201.8566108366</v>
       </c>
       <c r="G6" t="n">
-        <v>594005.1777162405</v>
+        <v>593201.8566108362</v>
       </c>
       <c r="H6" t="n">
-        <v>594005.1777162406</v>
+        <v>593201.8566108362</v>
       </c>
       <c r="I6" t="n">
-        <v>594005.1777162404</v>
+        <v>593201.8566108362</v>
       </c>
       <c r="J6" t="n">
-        <v>530945.2351171343</v>
+        <v>530141.91401173</v>
       </c>
       <c r="K6" t="n">
-        <v>594005.1777162406</v>
+        <v>593201.8566108361</v>
       </c>
       <c r="L6" t="n">
-        <v>594005.1777162405</v>
+        <v>593201.8566108363</v>
       </c>
       <c r="M6" t="n">
-        <v>354150.2508134645</v>
+        <v>353346.9297080605</v>
       </c>
       <c r="N6" t="n">
-        <v>594005.1777162404</v>
+        <v>593201.856610836</v>
       </c>
       <c r="O6" t="n">
-        <v>594005.1777162404</v>
+        <v>593201.8566108361</v>
       </c>
       <c r="P6" t="n">
-        <v>594005.1777162399</v>
+        <v>593201.8566108363</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>977.1806993863504</v>
+        <v>977.1806993863505</v>
       </c>
       <c r="F3" t="n">
-        <v>977.1806993863504</v>
+        <v>977.1806993863505</v>
       </c>
       <c r="G3" t="n">
-        <v>977.1806993863504</v>
+        <v>977.1806993863505</v>
       </c>
       <c r="H3" t="n">
-        <v>977.1806993863504</v>
+        <v>977.1806993863505</v>
       </c>
       <c r="I3" t="n">
-        <v>977.1806993863504</v>
+        <v>977.1806993863505</v>
       </c>
       <c r="J3" t="n">
-        <v>977.1806993863504</v>
+        <v>977.1806993863505</v>
       </c>
       <c r="K3" t="n">
-        <v>977.1806993863504</v>
+        <v>977.1806993863505</v>
       </c>
       <c r="L3" t="n">
-        <v>977.1806993863504</v>
+        <v>977.1806993863505</v>
       </c>
       <c r="M3" t="n">
-        <v>977.1806993863504</v>
+        <v>977.1806993863505</v>
       </c>
       <c r="N3" t="n">
-        <v>977.1806993863504</v>
+        <v>977.1806993863505</v>
       </c>
       <c r="O3" t="n">
-        <v>977.1806993863504</v>
+        <v>977.1806993863505</v>
       </c>
       <c r="P3" t="n">
-        <v>977.1806993863504</v>
+        <v>977.1806993863505</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>977.1806993863504</v>
+        <v>977.1806993863505</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>962.4842574869413</v>
+        <v>962.484257486941</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>962.4842574869413</v>
+        <v>962.484257486941</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>962.4842574869413</v>
+        <v>962.484257486941</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>175.044681835909</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>178.8751544832877</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27466,19 +27466,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>26.50255120528303</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>83.48048224442064</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27545,13 +27545,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>128.8756670037568</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
@@ -27560,10 +27560,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>314.5236871822507</v>
       </c>
       <c r="C5" t="n">
-        <v>152.9875061275656</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,19 +27627,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27660,19 +27660,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27697,7 +27697,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27712,10 +27712,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>31.723204724271</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27748,13 +27748,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>202.9643553194967</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>132.8070558482636</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27788,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>59.79494433408007</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,10 +27815,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>181.8035404384342</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
         <v>140.9160811946027</v>
@@ -27867,16 +27867,16 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>189.3456975206961</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27931,31 +27931,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27979,13 +27979,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>141.8088264551293</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -28000,7 +28000,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>60.50207587874957</v>
       </c>
     </row>
     <row r="10">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>140.004192713242</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28019,7 +28019,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>15.96843579630763</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28034,7 +28034,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28335,7 +28335,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -31755,7 +31755,7 @@
         <v>3.928364620648642</v>
       </c>
       <c r="H11" t="n">
-        <v>40.23136417121791</v>
+        <v>40.23136417121792</v>
       </c>
       <c r="I11" t="n">
         <v>151.4482770375569</v>
@@ -31767,16 +31767,16 @@
         <v>499.7027111138351</v>
       </c>
       <c r="L11" t="n">
-        <v>619.9253998730111</v>
+        <v>619.9253998730112</v>
       </c>
       <c r="M11" t="n">
         <v>689.7864541954714</v>
       </c>
       <c r="N11" t="n">
-        <v>700.9479201738893</v>
+        <v>700.9479201738894</v>
       </c>
       <c r="O11" t="n">
-        <v>661.8852444773144</v>
+        <v>661.8852444773145</v>
       </c>
       <c r="P11" t="n">
         <v>564.903742905051</v>
@@ -31788,7 +31788,7 @@
         <v>246.7651341018205</v>
       </c>
       <c r="S11" t="n">
-        <v>89.51760879303102</v>
+        <v>89.51760879303103</v>
       </c>
       <c r="T11" t="n">
         <v>17.19641612688944</v>
@@ -31840,7 +31840,7 @@
         <v>72.36668386964955</v>
       </c>
       <c r="J12" t="n">
-        <v>198.5797117498243</v>
+        <v>198.5797117498244</v>
       </c>
       <c r="K12" t="n">
         <v>339.404356691578</v>
@@ -31852,10 +31852,10 @@
         <v>532.5634811655609</v>
       </c>
       <c r="N12" t="n">
-        <v>546.6588518199169</v>
+        <v>546.658851819917</v>
       </c>
       <c r="O12" t="n">
-        <v>500.0860509397297</v>
+        <v>500.0860509397298</v>
       </c>
       <c r="P12" t="n">
         <v>401.3631442441786</v>
@@ -31867,10 +31867,10 @@
         <v>130.4997167972942</v>
       </c>
       <c r="S12" t="n">
-        <v>39.04113454623765</v>
+        <v>39.04113454623766</v>
       </c>
       <c r="T12" t="n">
-        <v>8.471972289962789</v>
+        <v>8.471972289962791</v>
       </c>
       <c r="U12" t="n">
         <v>0.1382802876490119</v>
@@ -31916,7 +31916,7 @@
         <v>15.66692990163691</v>
       </c>
       <c r="I13" t="n">
-        <v>52.99202874704996</v>
+        <v>52.99202874704997</v>
       </c>
       <c r="J13" t="n">
         <v>124.5825294938958</v>
@@ -31931,13 +31931,13 @@
         <v>276.2217508117842</v>
       </c>
       <c r="N13" t="n">
-        <v>269.6538149634499</v>
+        <v>269.65381496345</v>
       </c>
       <c r="O13" t="n">
         <v>249.0689428534259</v>
       </c>
       <c r="P13" t="n">
-        <v>213.1215086005901</v>
+        <v>213.1215086005902</v>
       </c>
       <c r="Q13" t="n">
         <v>147.5542856073389</v>
@@ -31952,7 +31952,7 @@
         <v>7.529097191993189</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09611613436587063</v>
+        <v>0.09611613436587065</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,7 +31992,7 @@
         <v>3.928364620648642</v>
       </c>
       <c r="H14" t="n">
-        <v>40.23136417121791</v>
+        <v>40.23136417121792</v>
       </c>
       <c r="I14" t="n">
         <v>151.4482770375569</v>
@@ -32004,16 +32004,16 @@
         <v>499.7027111138351</v>
       </c>
       <c r="L14" t="n">
-        <v>619.9253998730111</v>
+        <v>619.9253998730112</v>
       </c>
       <c r="M14" t="n">
         <v>689.7864541954714</v>
       </c>
       <c r="N14" t="n">
-        <v>700.9479201738893</v>
+        <v>700.9479201738894</v>
       </c>
       <c r="O14" t="n">
-        <v>661.8852444773144</v>
+        <v>661.8852444773145</v>
       </c>
       <c r="P14" t="n">
         <v>564.903742905051</v>
@@ -32025,7 +32025,7 @@
         <v>246.7651341018205</v>
       </c>
       <c r="S14" t="n">
-        <v>89.51760879303102</v>
+        <v>89.51760879303103</v>
       </c>
       <c r="T14" t="n">
         <v>17.19641612688944</v>
@@ -32077,7 +32077,7 @@
         <v>72.36668386964955</v>
       </c>
       <c r="J15" t="n">
-        <v>198.5797117498243</v>
+        <v>198.5797117498244</v>
       </c>
       <c r="K15" t="n">
         <v>339.404356691578</v>
@@ -32089,10 +32089,10 @@
         <v>532.5634811655609</v>
       </c>
       <c r="N15" t="n">
-        <v>546.6588518199169</v>
+        <v>546.658851819917</v>
       </c>
       <c r="O15" t="n">
-        <v>500.0860509397297</v>
+        <v>500.0860509397298</v>
       </c>
       <c r="P15" t="n">
         <v>401.3631442441786</v>
@@ -32104,10 +32104,10 @@
         <v>130.4997167972942</v>
       </c>
       <c r="S15" t="n">
-        <v>39.04113454623765</v>
+        <v>39.04113454623766</v>
       </c>
       <c r="T15" t="n">
-        <v>8.471972289962789</v>
+        <v>8.471972289962791</v>
       </c>
       <c r="U15" t="n">
         <v>0.1382802876490119</v>
@@ -32153,7 +32153,7 @@
         <v>15.66692990163691</v>
       </c>
       <c r="I16" t="n">
-        <v>52.99202874704996</v>
+        <v>52.99202874704997</v>
       </c>
       <c r="J16" t="n">
         <v>124.5825294938958</v>
@@ -32168,13 +32168,13 @@
         <v>276.2217508117842</v>
       </c>
       <c r="N16" t="n">
-        <v>269.6538149634499</v>
+        <v>269.65381496345</v>
       </c>
       <c r="O16" t="n">
         <v>249.0689428534259</v>
       </c>
       <c r="P16" t="n">
-        <v>213.1215086005901</v>
+        <v>213.1215086005902</v>
       </c>
       <c r="Q16" t="n">
         <v>147.5542856073389</v>
@@ -32189,7 +32189,7 @@
         <v>7.529097191993189</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09611613436587063</v>
+        <v>0.09611613436587065</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.928364620648642</v>
       </c>
       <c r="H17" t="n">
-        <v>40.23136417121791</v>
+        <v>40.23136417121792</v>
       </c>
       <c r="I17" t="n">
         <v>151.4482770375569</v>
@@ -32241,16 +32241,16 @@
         <v>499.7027111138351</v>
       </c>
       <c r="L17" t="n">
-        <v>619.9253998730111</v>
+        <v>619.9253998730112</v>
       </c>
       <c r="M17" t="n">
         <v>689.7864541954714</v>
       </c>
       <c r="N17" t="n">
-        <v>700.9479201738893</v>
+        <v>700.9479201738894</v>
       </c>
       <c r="O17" t="n">
-        <v>661.8852444773144</v>
+        <v>661.8852444773145</v>
       </c>
       <c r="P17" t="n">
         <v>564.903742905051</v>
@@ -32262,7 +32262,7 @@
         <v>246.7651341018205</v>
       </c>
       <c r="S17" t="n">
-        <v>89.51760879303102</v>
+        <v>89.51760879303103</v>
       </c>
       <c r="T17" t="n">
         <v>17.19641612688944</v>
@@ -32314,7 +32314,7 @@
         <v>72.36668386964955</v>
       </c>
       <c r="J18" t="n">
-        <v>198.5797117498243</v>
+        <v>198.5797117498244</v>
       </c>
       <c r="K18" t="n">
         <v>339.404356691578</v>
@@ -32326,10 +32326,10 @@
         <v>532.5634811655609</v>
       </c>
       <c r="N18" t="n">
-        <v>546.6588518199169</v>
+        <v>546.658851819917</v>
       </c>
       <c r="O18" t="n">
-        <v>500.0860509397297</v>
+        <v>500.0860509397298</v>
       </c>
       <c r="P18" t="n">
         <v>401.3631442441786</v>
@@ -32341,10 +32341,10 @@
         <v>130.4997167972942</v>
       </c>
       <c r="S18" t="n">
-        <v>39.04113454623765</v>
+        <v>39.04113454623766</v>
       </c>
       <c r="T18" t="n">
-        <v>8.471972289962789</v>
+        <v>8.471972289962791</v>
       </c>
       <c r="U18" t="n">
         <v>0.1382802876490119</v>
@@ -32390,7 +32390,7 @@
         <v>15.66692990163691</v>
       </c>
       <c r="I19" t="n">
-        <v>52.99202874704996</v>
+        <v>52.99202874704997</v>
       </c>
       <c r="J19" t="n">
         <v>124.5825294938958</v>
@@ -32405,13 +32405,13 @@
         <v>276.2217508117842</v>
       </c>
       <c r="N19" t="n">
-        <v>269.6538149634499</v>
+        <v>269.65381496345</v>
       </c>
       <c r="O19" t="n">
         <v>249.0689428534259</v>
       </c>
       <c r="P19" t="n">
-        <v>213.1215086005901</v>
+        <v>213.1215086005902</v>
       </c>
       <c r="Q19" t="n">
         <v>147.5542856073389</v>
@@ -32426,7 +32426,7 @@
         <v>7.529097191993189</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09611613436587063</v>
+        <v>0.09611613436587065</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.928364620648642</v>
       </c>
       <c r="H20" t="n">
-        <v>40.23136417121791</v>
+        <v>40.23136417121792</v>
       </c>
       <c r="I20" t="n">
         <v>151.4482770375569</v>
@@ -32478,16 +32478,16 @@
         <v>499.7027111138351</v>
       </c>
       <c r="L20" t="n">
-        <v>619.9253998730111</v>
+        <v>619.9253998730112</v>
       </c>
       <c r="M20" t="n">
         <v>689.7864541954714</v>
       </c>
       <c r="N20" t="n">
-        <v>700.9479201738893</v>
+        <v>700.9479201738894</v>
       </c>
       <c r="O20" t="n">
-        <v>661.8852444773144</v>
+        <v>661.8852444773145</v>
       </c>
       <c r="P20" t="n">
         <v>564.903742905051</v>
@@ -32499,7 +32499,7 @@
         <v>246.7651341018205</v>
       </c>
       <c r="S20" t="n">
-        <v>89.51760879303102</v>
+        <v>89.51760879303103</v>
       </c>
       <c r="T20" t="n">
         <v>17.19641612688944</v>
@@ -32551,7 +32551,7 @@
         <v>72.36668386964955</v>
       </c>
       <c r="J21" t="n">
-        <v>198.5797117498243</v>
+        <v>198.5797117498244</v>
       </c>
       <c r="K21" t="n">
         <v>339.404356691578</v>
@@ -32563,10 +32563,10 @@
         <v>532.5634811655609</v>
       </c>
       <c r="N21" t="n">
-        <v>546.6588518199169</v>
+        <v>546.658851819917</v>
       </c>
       <c r="O21" t="n">
-        <v>500.0860509397297</v>
+        <v>500.0860509397298</v>
       </c>
       <c r="P21" t="n">
         <v>401.3631442441786</v>
@@ -32578,10 +32578,10 @@
         <v>130.4997167972942</v>
       </c>
       <c r="S21" t="n">
-        <v>39.04113454623765</v>
+        <v>39.04113454623766</v>
       </c>
       <c r="T21" t="n">
-        <v>8.471972289962789</v>
+        <v>8.471972289962791</v>
       </c>
       <c r="U21" t="n">
         <v>0.1382802876490119</v>
@@ -32627,7 +32627,7 @@
         <v>15.66692990163691</v>
       </c>
       <c r="I22" t="n">
-        <v>52.99202874704996</v>
+        <v>52.99202874704997</v>
       </c>
       <c r="J22" t="n">
         <v>124.5825294938958</v>
@@ -32642,13 +32642,13 @@
         <v>276.2217508117842</v>
       </c>
       <c r="N22" t="n">
-        <v>269.6538149634499</v>
+        <v>269.65381496345</v>
       </c>
       <c r="O22" t="n">
         <v>249.0689428534259</v>
       </c>
       <c r="P22" t="n">
-        <v>213.1215086005901</v>
+        <v>213.1215086005902</v>
       </c>
       <c r="Q22" t="n">
         <v>147.5542856073389</v>
@@ -32663,7 +32663,7 @@
         <v>7.529097191993189</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09611613436587063</v>
+        <v>0.09611613436587065</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.928364620648642</v>
       </c>
       <c r="H23" t="n">
-        <v>40.23136417121791</v>
+        <v>40.23136417121792</v>
       </c>
       <c r="I23" t="n">
         <v>151.4482770375569</v>
@@ -32715,16 +32715,16 @@
         <v>499.7027111138351</v>
       </c>
       <c r="L23" t="n">
-        <v>619.9253998730111</v>
+        <v>619.9253998730112</v>
       </c>
       <c r="M23" t="n">
         <v>689.7864541954714</v>
       </c>
       <c r="N23" t="n">
-        <v>700.9479201738893</v>
+        <v>700.9479201738894</v>
       </c>
       <c r="O23" t="n">
-        <v>661.8852444773144</v>
+        <v>661.8852444773145</v>
       </c>
       <c r="P23" t="n">
         <v>564.903742905051</v>
@@ -32736,7 +32736,7 @@
         <v>246.7651341018205</v>
       </c>
       <c r="S23" t="n">
-        <v>89.51760879303102</v>
+        <v>89.51760879303103</v>
       </c>
       <c r="T23" t="n">
         <v>17.19641612688944</v>
@@ -32788,7 +32788,7 @@
         <v>72.36668386964955</v>
       </c>
       <c r="J24" t="n">
-        <v>198.5797117498243</v>
+        <v>198.5797117498244</v>
       </c>
       <c r="K24" t="n">
         <v>339.404356691578</v>
@@ -32800,10 +32800,10 @@
         <v>532.5634811655609</v>
       </c>
       <c r="N24" t="n">
-        <v>546.6588518199169</v>
+        <v>546.658851819917</v>
       </c>
       <c r="O24" t="n">
-        <v>500.0860509397297</v>
+        <v>500.0860509397298</v>
       </c>
       <c r="P24" t="n">
         <v>401.3631442441786</v>
@@ -32815,10 +32815,10 @@
         <v>130.4997167972942</v>
       </c>
       <c r="S24" t="n">
-        <v>39.04113454623765</v>
+        <v>39.04113454623766</v>
       </c>
       <c r="T24" t="n">
-        <v>8.471972289962789</v>
+        <v>8.471972289962791</v>
       </c>
       <c r="U24" t="n">
         <v>0.1382802876490119</v>
@@ -32864,7 +32864,7 @@
         <v>15.66692990163691</v>
       </c>
       <c r="I25" t="n">
-        <v>52.99202874704996</v>
+        <v>52.99202874704997</v>
       </c>
       <c r="J25" t="n">
         <v>124.5825294938958</v>
@@ -32879,13 +32879,13 @@
         <v>276.2217508117842</v>
       </c>
       <c r="N25" t="n">
-        <v>269.6538149634499</v>
+        <v>269.65381496345</v>
       </c>
       <c r="O25" t="n">
         <v>249.0689428534259</v>
       </c>
       <c r="P25" t="n">
-        <v>213.1215086005901</v>
+        <v>213.1215086005902</v>
       </c>
       <c r="Q25" t="n">
         <v>147.5542856073389</v>
@@ -32900,7 +32900,7 @@
         <v>7.529097191993189</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09611613436587063</v>
+        <v>0.09611613436587065</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.928364620648642</v>
       </c>
       <c r="H26" t="n">
-        <v>40.23136417121791</v>
+        <v>40.23136417121792</v>
       </c>
       <c r="I26" t="n">
         <v>151.4482770375569</v>
@@ -32952,16 +32952,16 @@
         <v>499.7027111138351</v>
       </c>
       <c r="L26" t="n">
-        <v>619.9253998730111</v>
+        <v>619.9253998730112</v>
       </c>
       <c r="M26" t="n">
         <v>689.7864541954714</v>
       </c>
       <c r="N26" t="n">
-        <v>700.9479201738893</v>
+        <v>700.9479201738894</v>
       </c>
       <c r="O26" t="n">
-        <v>661.8852444773144</v>
+        <v>661.8852444773145</v>
       </c>
       <c r="P26" t="n">
         <v>564.903742905051</v>
@@ -32973,7 +32973,7 @@
         <v>246.7651341018205</v>
       </c>
       <c r="S26" t="n">
-        <v>89.51760879303102</v>
+        <v>89.51760879303103</v>
       </c>
       <c r="T26" t="n">
         <v>17.19641612688944</v>
@@ -33025,7 +33025,7 @@
         <v>72.36668386964955</v>
       </c>
       <c r="J27" t="n">
-        <v>198.5797117498243</v>
+        <v>198.5797117498244</v>
       </c>
       <c r="K27" t="n">
         <v>339.404356691578</v>
@@ -33037,10 +33037,10 @@
         <v>532.5634811655609</v>
       </c>
       <c r="N27" t="n">
-        <v>546.6588518199169</v>
+        <v>546.658851819917</v>
       </c>
       <c r="O27" t="n">
-        <v>500.0860509397297</v>
+        <v>500.0860509397298</v>
       </c>
       <c r="P27" t="n">
         <v>401.3631442441786</v>
@@ -33052,10 +33052,10 @@
         <v>130.4997167972942</v>
       </c>
       <c r="S27" t="n">
-        <v>39.04113454623765</v>
+        <v>39.04113454623766</v>
       </c>
       <c r="T27" t="n">
-        <v>8.471972289962789</v>
+        <v>8.471972289962791</v>
       </c>
       <c r="U27" t="n">
         <v>0.1382802876490119</v>
@@ -33101,7 +33101,7 @@
         <v>15.66692990163691</v>
       </c>
       <c r="I28" t="n">
-        <v>52.99202874704996</v>
+        <v>52.99202874704997</v>
       </c>
       <c r="J28" t="n">
         <v>124.5825294938958</v>
@@ -33116,13 +33116,13 @@
         <v>276.2217508117842</v>
       </c>
       <c r="N28" t="n">
-        <v>269.6538149634499</v>
+        <v>269.65381496345</v>
       </c>
       <c r="O28" t="n">
         <v>249.0689428534259</v>
       </c>
       <c r="P28" t="n">
-        <v>213.1215086005901</v>
+        <v>213.1215086005902</v>
       </c>
       <c r="Q28" t="n">
         <v>147.5542856073389</v>
@@ -33137,7 +33137,7 @@
         <v>7.529097191993189</v>
       </c>
       <c r="U28" t="n">
-        <v>0.09611613436587063</v>
+        <v>0.09611613436587065</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.928364620648642</v>
       </c>
       <c r="H29" t="n">
-        <v>40.23136417121791</v>
+        <v>40.23136417121792</v>
       </c>
       <c r="I29" t="n">
         <v>151.4482770375569</v>
@@ -33189,16 +33189,16 @@
         <v>499.7027111138351</v>
       </c>
       <c r="L29" t="n">
-        <v>619.9253998730111</v>
+        <v>619.9253998730112</v>
       </c>
       <c r="M29" t="n">
         <v>689.7864541954714</v>
       </c>
       <c r="N29" t="n">
-        <v>700.9479201738893</v>
+        <v>700.9479201738894</v>
       </c>
       <c r="O29" t="n">
-        <v>661.8852444773144</v>
+        <v>661.8852444773145</v>
       </c>
       <c r="P29" t="n">
         <v>564.903742905051</v>
@@ -33210,7 +33210,7 @@
         <v>246.7651341018205</v>
       </c>
       <c r="S29" t="n">
-        <v>89.51760879303102</v>
+        <v>89.51760879303103</v>
       </c>
       <c r="T29" t="n">
         <v>17.19641612688944</v>
@@ -33262,7 +33262,7 @@
         <v>72.36668386964955</v>
       </c>
       <c r="J30" t="n">
-        <v>198.5797117498243</v>
+        <v>198.5797117498244</v>
       </c>
       <c r="K30" t="n">
         <v>339.404356691578</v>
@@ -33274,10 +33274,10 @@
         <v>532.5634811655609</v>
       </c>
       <c r="N30" t="n">
-        <v>546.6588518199169</v>
+        <v>546.658851819917</v>
       </c>
       <c r="O30" t="n">
-        <v>500.0860509397297</v>
+        <v>500.0860509397298</v>
       </c>
       <c r="P30" t="n">
         <v>401.3631442441786</v>
@@ -33289,10 +33289,10 @@
         <v>130.4997167972942</v>
       </c>
       <c r="S30" t="n">
-        <v>39.04113454623765</v>
+        <v>39.04113454623766</v>
       </c>
       <c r="T30" t="n">
-        <v>8.471972289962789</v>
+        <v>8.471972289962791</v>
       </c>
       <c r="U30" t="n">
         <v>0.1382802876490119</v>
@@ -33338,7 +33338,7 @@
         <v>15.66692990163691</v>
       </c>
       <c r="I31" t="n">
-        <v>52.99202874704996</v>
+        <v>52.99202874704997</v>
       </c>
       <c r="J31" t="n">
         <v>124.5825294938958</v>
@@ -33353,13 +33353,13 @@
         <v>276.2217508117842</v>
       </c>
       <c r="N31" t="n">
-        <v>269.6538149634499</v>
+        <v>269.65381496345</v>
       </c>
       <c r="O31" t="n">
         <v>249.0689428534259</v>
       </c>
       <c r="P31" t="n">
-        <v>213.1215086005901</v>
+        <v>213.1215086005902</v>
       </c>
       <c r="Q31" t="n">
         <v>147.5542856073389</v>
@@ -33374,7 +33374,7 @@
         <v>7.529097191993189</v>
       </c>
       <c r="U31" t="n">
-        <v>0.09611613436587063</v>
+        <v>0.09611613436587065</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.928364620648642</v>
       </c>
       <c r="H32" t="n">
-        <v>40.23136417121791</v>
+        <v>40.23136417121792</v>
       </c>
       <c r="I32" t="n">
         <v>151.4482770375569</v>
@@ -33426,16 +33426,16 @@
         <v>499.7027111138351</v>
       </c>
       <c r="L32" t="n">
-        <v>619.9253998730111</v>
+        <v>619.9253998730112</v>
       </c>
       <c r="M32" t="n">
         <v>689.7864541954714</v>
       </c>
       <c r="N32" t="n">
-        <v>700.9479201738893</v>
+        <v>700.9479201738894</v>
       </c>
       <c r="O32" t="n">
-        <v>661.8852444773144</v>
+        <v>661.8852444773145</v>
       </c>
       <c r="P32" t="n">
         <v>564.903742905051</v>
@@ -33447,7 +33447,7 @@
         <v>246.7651341018205</v>
       </c>
       <c r="S32" t="n">
-        <v>89.51760879303102</v>
+        <v>89.51760879303103</v>
       </c>
       <c r="T32" t="n">
         <v>17.19641612688944</v>
@@ -33499,7 +33499,7 @@
         <v>72.36668386964955</v>
       </c>
       <c r="J33" t="n">
-        <v>198.5797117498243</v>
+        <v>198.5797117498244</v>
       </c>
       <c r="K33" t="n">
         <v>339.404356691578</v>
@@ -33511,10 +33511,10 @@
         <v>532.5634811655609</v>
       </c>
       <c r="N33" t="n">
-        <v>546.6588518199169</v>
+        <v>546.658851819917</v>
       </c>
       <c r="O33" t="n">
-        <v>500.0860509397297</v>
+        <v>500.0860509397298</v>
       </c>
       <c r="P33" t="n">
         <v>401.3631442441786</v>
@@ -33526,10 +33526,10 @@
         <v>130.4997167972942</v>
       </c>
       <c r="S33" t="n">
-        <v>39.04113454623765</v>
+        <v>39.04113454623766</v>
       </c>
       <c r="T33" t="n">
-        <v>8.471972289962789</v>
+        <v>8.471972289962791</v>
       </c>
       <c r="U33" t="n">
         <v>0.1382802876490119</v>
@@ -33575,7 +33575,7 @@
         <v>15.66692990163691</v>
       </c>
       <c r="I34" t="n">
-        <v>52.99202874704996</v>
+        <v>52.99202874704997</v>
       </c>
       <c r="J34" t="n">
         <v>124.5825294938958</v>
@@ -33590,13 +33590,13 @@
         <v>276.2217508117842</v>
       </c>
       <c r="N34" t="n">
-        <v>269.6538149634499</v>
+        <v>269.65381496345</v>
       </c>
       <c r="O34" t="n">
         <v>249.0689428534259</v>
       </c>
       <c r="P34" t="n">
-        <v>213.1215086005901</v>
+        <v>213.1215086005902</v>
       </c>
       <c r="Q34" t="n">
         <v>147.5542856073389</v>
@@ -33611,7 +33611,7 @@
         <v>7.529097191993189</v>
       </c>
       <c r="U34" t="n">
-        <v>0.09611613436587063</v>
+        <v>0.09611613436587065</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.928364620648642</v>
       </c>
       <c r="H35" t="n">
-        <v>40.23136417121791</v>
+        <v>40.23136417121792</v>
       </c>
       <c r="I35" t="n">
         <v>151.4482770375569</v>
@@ -33663,16 +33663,16 @@
         <v>499.7027111138351</v>
       </c>
       <c r="L35" t="n">
-        <v>619.9253998730111</v>
+        <v>619.9253998730112</v>
       </c>
       <c r="M35" t="n">
         <v>689.7864541954714</v>
       </c>
       <c r="N35" t="n">
-        <v>700.9479201738893</v>
+        <v>700.9479201738894</v>
       </c>
       <c r="O35" t="n">
-        <v>661.8852444773144</v>
+        <v>661.8852444773145</v>
       </c>
       <c r="P35" t="n">
         <v>564.903742905051</v>
@@ -33684,7 +33684,7 @@
         <v>246.7651341018205</v>
       </c>
       <c r="S35" t="n">
-        <v>89.51760879303102</v>
+        <v>89.51760879303103</v>
       </c>
       <c r="T35" t="n">
         <v>17.19641612688944</v>
@@ -33736,7 +33736,7 @@
         <v>72.36668386964955</v>
       </c>
       <c r="J36" t="n">
-        <v>198.5797117498243</v>
+        <v>198.5797117498244</v>
       </c>
       <c r="K36" t="n">
         <v>339.404356691578</v>
@@ -33748,10 +33748,10 @@
         <v>532.5634811655609</v>
       </c>
       <c r="N36" t="n">
-        <v>546.6588518199169</v>
+        <v>546.658851819917</v>
       </c>
       <c r="O36" t="n">
-        <v>500.0860509397297</v>
+        <v>500.0860509397298</v>
       </c>
       <c r="P36" t="n">
         <v>401.3631442441786</v>
@@ -33763,10 +33763,10 @@
         <v>130.4997167972942</v>
       </c>
       <c r="S36" t="n">
-        <v>39.04113454623765</v>
+        <v>39.04113454623766</v>
       </c>
       <c r="T36" t="n">
-        <v>8.471972289962789</v>
+        <v>8.471972289962791</v>
       </c>
       <c r="U36" t="n">
         <v>0.1382802876490119</v>
@@ -33812,7 +33812,7 @@
         <v>15.66692990163691</v>
       </c>
       <c r="I37" t="n">
-        <v>52.99202874704996</v>
+        <v>52.99202874704997</v>
       </c>
       <c r="J37" t="n">
         <v>124.5825294938958</v>
@@ -33827,13 +33827,13 @@
         <v>276.2217508117842</v>
       </c>
       <c r="N37" t="n">
-        <v>269.6538149634499</v>
+        <v>269.65381496345</v>
       </c>
       <c r="O37" t="n">
         <v>249.0689428534259</v>
       </c>
       <c r="P37" t="n">
-        <v>213.1215086005901</v>
+        <v>213.1215086005902</v>
       </c>
       <c r="Q37" t="n">
         <v>147.5542856073389</v>
@@ -33848,7 +33848,7 @@
         <v>7.529097191993189</v>
       </c>
       <c r="U37" t="n">
-        <v>0.09611613436587063</v>
+        <v>0.09611613436587065</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.928364620648642</v>
       </c>
       <c r="H38" t="n">
-        <v>40.23136417121791</v>
+        <v>40.23136417121792</v>
       </c>
       <c r="I38" t="n">
         <v>151.4482770375569</v>
@@ -33900,16 +33900,16 @@
         <v>499.7027111138351</v>
       </c>
       <c r="L38" t="n">
-        <v>619.9253998730111</v>
+        <v>619.9253998730112</v>
       </c>
       <c r="M38" t="n">
         <v>689.7864541954714</v>
       </c>
       <c r="N38" t="n">
-        <v>700.9479201738893</v>
+        <v>700.9479201738894</v>
       </c>
       <c r="O38" t="n">
-        <v>661.8852444773144</v>
+        <v>661.8852444773145</v>
       </c>
       <c r="P38" t="n">
         <v>564.903742905051</v>
@@ -33921,7 +33921,7 @@
         <v>246.7651341018205</v>
       </c>
       <c r="S38" t="n">
-        <v>89.51760879303102</v>
+        <v>89.51760879303103</v>
       </c>
       <c r="T38" t="n">
         <v>17.19641612688944</v>
@@ -33973,7 +33973,7 @@
         <v>72.36668386964955</v>
       </c>
       <c r="J39" t="n">
-        <v>198.5797117498243</v>
+        <v>198.5797117498244</v>
       </c>
       <c r="K39" t="n">
         <v>339.404356691578</v>
@@ -33985,10 +33985,10 @@
         <v>532.5634811655609</v>
       </c>
       <c r="N39" t="n">
-        <v>546.6588518199169</v>
+        <v>546.658851819917</v>
       </c>
       <c r="O39" t="n">
-        <v>500.0860509397297</v>
+        <v>500.0860509397298</v>
       </c>
       <c r="P39" t="n">
         <v>401.3631442441786</v>
@@ -34000,10 +34000,10 @@
         <v>130.4997167972942</v>
       </c>
       <c r="S39" t="n">
-        <v>39.04113454623765</v>
+        <v>39.04113454623766</v>
       </c>
       <c r="T39" t="n">
-        <v>8.471972289962789</v>
+        <v>8.471972289962791</v>
       </c>
       <c r="U39" t="n">
         <v>0.1382802876490119</v>
@@ -34049,7 +34049,7 @@
         <v>15.66692990163691</v>
       </c>
       <c r="I40" t="n">
-        <v>52.99202874704996</v>
+        <v>52.99202874704997</v>
       </c>
       <c r="J40" t="n">
         <v>124.5825294938958</v>
@@ -34064,13 +34064,13 @@
         <v>276.2217508117842</v>
       </c>
       <c r="N40" t="n">
-        <v>269.6538149634499</v>
+        <v>269.65381496345</v>
       </c>
       <c r="O40" t="n">
         <v>249.0689428534259</v>
       </c>
       <c r="P40" t="n">
-        <v>213.1215086005901</v>
+        <v>213.1215086005902</v>
       </c>
       <c r="Q40" t="n">
         <v>147.5542856073389</v>
@@ -34085,7 +34085,7 @@
         <v>7.529097191993189</v>
       </c>
       <c r="U40" t="n">
-        <v>0.09611613436587063</v>
+        <v>0.09611613436587065</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>3.928364620648642</v>
       </c>
       <c r="H41" t="n">
-        <v>40.23136417121791</v>
+        <v>40.23136417121792</v>
       </c>
       <c r="I41" t="n">
         <v>151.4482770375569</v>
@@ -34137,16 +34137,16 @@
         <v>499.7027111138351</v>
       </c>
       <c r="L41" t="n">
-        <v>619.9253998730111</v>
+        <v>619.9253998730112</v>
       </c>
       <c r="M41" t="n">
         <v>689.7864541954714</v>
       </c>
       <c r="N41" t="n">
-        <v>700.9479201738893</v>
+        <v>700.9479201738894</v>
       </c>
       <c r="O41" t="n">
-        <v>661.8852444773144</v>
+        <v>661.8852444773145</v>
       </c>
       <c r="P41" t="n">
         <v>564.903742905051</v>
@@ -34158,7 +34158,7 @@
         <v>246.7651341018205</v>
       </c>
       <c r="S41" t="n">
-        <v>89.51760879303102</v>
+        <v>89.51760879303103</v>
       </c>
       <c r="T41" t="n">
         <v>17.19641612688944</v>
@@ -34210,7 +34210,7 @@
         <v>72.36668386964955</v>
       </c>
       <c r="J42" t="n">
-        <v>198.5797117498243</v>
+        <v>198.5797117498244</v>
       </c>
       <c r="K42" t="n">
         <v>339.404356691578</v>
@@ -34222,10 +34222,10 @@
         <v>532.5634811655609</v>
       </c>
       <c r="N42" t="n">
-        <v>546.6588518199169</v>
+        <v>546.658851819917</v>
       </c>
       <c r="O42" t="n">
-        <v>500.0860509397297</v>
+        <v>500.0860509397298</v>
       </c>
       <c r="P42" t="n">
         <v>401.3631442441786</v>
@@ -34237,10 +34237,10 @@
         <v>130.4997167972942</v>
       </c>
       <c r="S42" t="n">
-        <v>39.04113454623765</v>
+        <v>39.04113454623766</v>
       </c>
       <c r="T42" t="n">
-        <v>8.471972289962789</v>
+        <v>8.471972289962791</v>
       </c>
       <c r="U42" t="n">
         <v>0.1382802876490119</v>
@@ -34286,7 +34286,7 @@
         <v>15.66692990163691</v>
       </c>
       <c r="I43" t="n">
-        <v>52.99202874704996</v>
+        <v>52.99202874704997</v>
       </c>
       <c r="J43" t="n">
         <v>124.5825294938958</v>
@@ -34301,13 +34301,13 @@
         <v>276.2217508117842</v>
       </c>
       <c r="N43" t="n">
-        <v>269.6538149634499</v>
+        <v>269.65381496345</v>
       </c>
       <c r="O43" t="n">
         <v>249.0689428534259</v>
       </c>
       <c r="P43" t="n">
-        <v>213.1215086005901</v>
+        <v>213.1215086005902</v>
       </c>
       <c r="Q43" t="n">
         <v>147.5542856073389</v>
@@ -34322,7 +34322,7 @@
         <v>7.529097191993189</v>
       </c>
       <c r="U43" t="n">
-        <v>0.09611613436587063</v>
+        <v>0.09611613436587065</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,7 +34362,7 @@
         <v>3.928364620648642</v>
       </c>
       <c r="H44" t="n">
-        <v>40.23136417121791</v>
+        <v>40.23136417121792</v>
       </c>
       <c r="I44" t="n">
         <v>151.4482770375569</v>
@@ -34374,16 +34374,16 @@
         <v>499.7027111138351</v>
       </c>
       <c r="L44" t="n">
-        <v>619.9253998730111</v>
+        <v>619.9253998730112</v>
       </c>
       <c r="M44" t="n">
         <v>689.7864541954714</v>
       </c>
       <c r="N44" t="n">
-        <v>700.9479201738893</v>
+        <v>700.9479201738894</v>
       </c>
       <c r="O44" t="n">
-        <v>661.8852444773144</v>
+        <v>661.8852444773145</v>
       </c>
       <c r="P44" t="n">
         <v>564.903742905051</v>
@@ -34395,7 +34395,7 @@
         <v>246.7651341018205</v>
       </c>
       <c r="S44" t="n">
-        <v>89.51760879303102</v>
+        <v>89.51760879303103</v>
       </c>
       <c r="T44" t="n">
         <v>17.19641612688944</v>
@@ -34447,7 +34447,7 @@
         <v>72.36668386964955</v>
       </c>
       <c r="J45" t="n">
-        <v>198.5797117498243</v>
+        <v>198.5797117498244</v>
       </c>
       <c r="K45" t="n">
         <v>339.404356691578</v>
@@ -34459,10 +34459,10 @@
         <v>532.5634811655609</v>
       </c>
       <c r="N45" t="n">
-        <v>546.6588518199169</v>
+        <v>546.658851819917</v>
       </c>
       <c r="O45" t="n">
-        <v>500.0860509397297</v>
+        <v>500.0860509397298</v>
       </c>
       <c r="P45" t="n">
         <v>401.3631442441786</v>
@@ -34474,10 +34474,10 @@
         <v>130.4997167972942</v>
       </c>
       <c r="S45" t="n">
-        <v>39.04113454623765</v>
+        <v>39.04113454623766</v>
       </c>
       <c r="T45" t="n">
-        <v>8.471972289962789</v>
+        <v>8.471972289962791</v>
       </c>
       <c r="U45" t="n">
         <v>0.1382802876490119</v>
@@ -34523,7 +34523,7 @@
         <v>15.66692990163691</v>
       </c>
       <c r="I46" t="n">
-        <v>52.99202874704996</v>
+        <v>52.99202874704997</v>
       </c>
       <c r="J46" t="n">
         <v>124.5825294938958</v>
@@ -34538,13 +34538,13 @@
         <v>276.2217508117842</v>
       </c>
       <c r="N46" t="n">
-        <v>269.6538149634499</v>
+        <v>269.65381496345</v>
       </c>
       <c r="O46" t="n">
         <v>249.0689428534259</v>
       </c>
       <c r="P46" t="n">
-        <v>213.1215086005901</v>
+        <v>213.1215086005902</v>
       </c>
       <c r="Q46" t="n">
         <v>147.5542856073389</v>
@@ -34559,7 +34559,7 @@
         <v>7.529097191993189</v>
       </c>
       <c r="U46" t="n">
-        <v>0.09611613436587063</v>
+        <v>0.09611613436587065</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M6" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
@@ -35266,13 +35266,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>43.28534947792182</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,28 +35412,28 @@
         <v>321.4657473671655</v>
       </c>
       <c r="K11" t="n">
-        <v>603.7582726400192</v>
+        <v>603.7582726400193</v>
       </c>
       <c r="L11" t="n">
-        <v>801.8201994534743</v>
+        <v>801.8201994534744</v>
       </c>
       <c r="M11" t="n">
-        <v>908.9537544610312</v>
+        <v>459.4402209681987</v>
       </c>
       <c r="N11" t="n">
-        <v>471.5348565772984</v>
+        <v>599.7023696221887</v>
       </c>
       <c r="O11" t="n">
-        <v>812.587214318373</v>
+        <v>812.5872143183731</v>
       </c>
       <c r="P11" t="n">
-        <v>546.4384255332279</v>
+        <v>655.4694553212641</v>
       </c>
       <c r="Q11" t="n">
-        <v>201.9134950536219</v>
+        <v>414.2284857135265</v>
       </c>
       <c r="R11" t="n">
-        <v>96.8960161606708</v>
+        <v>96.89601616067083</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>71.74208508315763</v>
+        <v>197.8331204235665</v>
       </c>
       <c r="K12" t="n">
-        <v>466.0281547297976</v>
+        <v>215.0326555899143</v>
       </c>
       <c r="L12" t="n">
-        <v>317.8166628910813</v>
+        <v>317.8166628910814</v>
       </c>
       <c r="M12" t="n">
         <v>390.4294472435426</v>
       </c>
       <c r="N12" t="n">
-        <v>415.3171397365836</v>
+        <v>415.3171397365837</v>
       </c>
       <c r="O12" t="n">
         <v>357.4898064952853</v>
       </c>
       <c r="P12" t="n">
-        <v>267.3887368298483</v>
+        <v>267.3887368298484</v>
       </c>
       <c r="Q12" t="n">
-        <v>243.8335652774603</v>
+        <v>338.3961464322837</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>30.34188264465105</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>31.22334937722306</v>
+        <v>31.22334937722307</v>
       </c>
       <c r="K13" t="n">
         <v>182.4578743734213</v>
@@ -35579,16 +35579,16 @@
         <v>315.8056277736248</v>
       </c>
       <c r="N13" t="n">
-        <v>313.7859873426785</v>
+        <v>313.7859873426786</v>
       </c>
       <c r="O13" t="n">
         <v>273.6540707674656</v>
       </c>
       <c r="P13" t="n">
-        <v>210.4000678654836</v>
+        <v>210.4000678654837</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.39224235564451</v>
+        <v>61.39224235564454</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>152.3691321950917</v>
+        <v>321.4657473671655</v>
       </c>
       <c r="K14" t="n">
-        <v>603.7582726400192</v>
+        <v>603.7582726400193</v>
       </c>
       <c r="L14" t="n">
-        <v>801.8201994534743</v>
+        <v>492.6407880863804</v>
       </c>
       <c r="M14" t="n">
-        <v>597.3888353060669</v>
+        <v>459.4402209681987</v>
       </c>
       <c r="N14" t="n">
-        <v>908.8817809892826</v>
+        <v>908.8817809892827</v>
       </c>
       <c r="O14" t="n">
-        <v>812.587214318373</v>
+        <v>812.5872143183731</v>
       </c>
       <c r="P14" t="n">
         <v>655.4694553212641</v>
       </c>
       <c r="Q14" t="n">
-        <v>201.9134950536219</v>
+        <v>414.2284857135265</v>
       </c>
       <c r="R14" t="n">
-        <v>31.17959628768836</v>
+        <v>96.89601616067083</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>71.74208508315763</v>
+        <v>80.88168337330248</v>
       </c>
       <c r="K15" t="n">
-        <v>210.7025160073644</v>
+        <v>201.562917717219</v>
       </c>
       <c r="L15" t="n">
-        <v>688.6570081945405</v>
+        <v>688.6570081945406</v>
       </c>
       <c r="M15" t="n">
         <v>390.4294472435426</v>
       </c>
       <c r="N15" t="n">
-        <v>415.3171397365836</v>
+        <v>415.3171397365837</v>
       </c>
       <c r="O15" t="n">
         <v>357.4898064952853</v>
       </c>
       <c r="P15" t="n">
-        <v>267.3887368298483</v>
+        <v>267.3887368298484</v>
       </c>
       <c r="Q15" t="n">
         <v>128.3188586964346</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>31.22334937722306</v>
+        <v>31.22334937722307</v>
       </c>
       <c r="K16" t="n">
         <v>182.4578743734213</v>
@@ -35816,16 +35816,16 @@
         <v>315.8056277736248</v>
       </c>
       <c r="N16" t="n">
-        <v>313.7859873426785</v>
+        <v>313.7859873426786</v>
       </c>
       <c r="O16" t="n">
         <v>273.6540707674656</v>
       </c>
       <c r="P16" t="n">
-        <v>210.4000678654836</v>
+        <v>210.4000678654837</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.39224235564451</v>
+        <v>61.39224235564454</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>152.3691321950917</v>
+        <v>321.4657473671655</v>
       </c>
       <c r="K17" t="n">
-        <v>603.7582726400192</v>
+        <v>603.7582726400193</v>
       </c>
       <c r="L17" t="n">
-        <v>801.8201994534743</v>
+        <v>801.8201994534744</v>
       </c>
       <c r="M17" t="n">
-        <v>597.3888353060669</v>
+        <v>587.6077340130905</v>
       </c>
       <c r="N17" t="n">
-        <v>908.8817809892826</v>
+        <v>471.5348565772985</v>
       </c>
       <c r="O17" t="n">
-        <v>812.587214318373</v>
+        <v>812.5872143183731</v>
       </c>
       <c r="P17" t="n">
         <v>655.4694553212641</v>
       </c>
       <c r="Q17" t="n">
-        <v>201.9134950536219</v>
+        <v>414.2284857135265</v>
       </c>
       <c r="R17" t="n">
-        <v>31.17959628768836</v>
+        <v>96.89601616067083</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>71.74208508315763</v>
+        <v>197.8331204235665</v>
       </c>
       <c r="K18" t="n">
-        <v>371.4655735749746</v>
+        <v>201.562917717219</v>
       </c>
       <c r="L18" t="n">
-        <v>317.8166628910813</v>
+        <v>317.8166628910814</v>
       </c>
       <c r="M18" t="n">
         <v>390.4294472435426</v>
       </c>
       <c r="N18" t="n">
-        <v>415.3171397365836</v>
+        <v>415.3171397365837</v>
       </c>
       <c r="O18" t="n">
         <v>357.4898064952853</v>
       </c>
       <c r="P18" t="n">
-        <v>267.3887368298483</v>
+        <v>311.2003573471947</v>
       </c>
       <c r="Q18" t="n">
         <v>338.3961464322837</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>31.22334937722306</v>
+        <v>31.22334937722307</v>
       </c>
       <c r="K19" t="n">
         <v>182.4578743734213</v>
@@ -36053,16 +36053,16 @@
         <v>315.8056277736248</v>
       </c>
       <c r="N19" t="n">
-        <v>313.7859873426785</v>
+        <v>313.7859873426786</v>
       </c>
       <c r="O19" t="n">
         <v>273.6540707674656</v>
       </c>
       <c r="P19" t="n">
-        <v>210.4000678654836</v>
+        <v>210.4000678654837</v>
       </c>
       <c r="Q19" t="n">
-        <v>61.39224235564451</v>
+        <v>61.39224235564454</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>152.3691321950917</v>
+        <v>321.4657473671655</v>
       </c>
       <c r="K20" t="n">
-        <v>603.7582726400192</v>
+        <v>603.7582726400193</v>
       </c>
       <c r="L20" t="n">
-        <v>801.8201994534743</v>
+        <v>801.8201994534744</v>
       </c>
       <c r="M20" t="n">
         <v>459.4402209681987</v>
       </c>
       <c r="N20" t="n">
-        <v>908.8817809892826</v>
+        <v>599.7023696221906</v>
       </c>
       <c r="O20" t="n">
-        <v>812.587214318373</v>
+        <v>812.5872143183731</v>
       </c>
       <c r="P20" t="n">
         <v>655.4694553212641</v>
       </c>
       <c r="Q20" t="n">
-        <v>339.8621093914901</v>
+        <v>414.2284857135265</v>
       </c>
       <c r="R20" t="n">
-        <v>31.17959628768836</v>
+        <v>96.89601616067083</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>71.74208508315763</v>
+        <v>197.8331204235665</v>
       </c>
       <c r="K21" t="n">
-        <v>201.562917717219</v>
+        <v>245.3745382345653</v>
       </c>
       <c r="L21" t="n">
-        <v>317.8166628910813</v>
+        <v>317.8166628910814</v>
       </c>
       <c r="M21" t="n">
         <v>390.4294472435426</v>
       </c>
       <c r="N21" t="n">
-        <v>795.2970833301885</v>
+        <v>415.3171397365837</v>
       </c>
       <c r="O21" t="n">
         <v>357.4898064952853</v>
       </c>
       <c r="P21" t="n">
-        <v>267.3887368298483</v>
+        <v>267.3887368298484</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.3188586964346</v>
+        <v>338.3961464322837</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>31.22334937722306</v>
+        <v>31.22334937722307</v>
       </c>
       <c r="K22" t="n">
         <v>182.4578743734213</v>
@@ -36290,16 +36290,16 @@
         <v>315.8056277736248</v>
       </c>
       <c r="N22" t="n">
-        <v>313.7859873426785</v>
+        <v>313.7859873426786</v>
       </c>
       <c r="O22" t="n">
         <v>273.6540707674656</v>
       </c>
       <c r="P22" t="n">
-        <v>210.4000678654836</v>
+        <v>210.4000678654837</v>
       </c>
       <c r="Q22" t="n">
-        <v>61.39224235564451</v>
+        <v>61.39224235564454</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>152.3691321950917</v>
+        <v>321.4657473671655</v>
       </c>
       <c r="K23" t="n">
-        <v>603.7582726400192</v>
+        <v>603.7582726400193</v>
       </c>
       <c r="L23" t="n">
-        <v>801.8201994534743</v>
+        <v>801.8201994534744</v>
       </c>
       <c r="M23" t="n">
-        <v>908.9537544610312</v>
+        <v>459.4402209681987</v>
       </c>
       <c r="N23" t="n">
-        <v>908.8817809892826</v>
+        <v>599.7023696221906</v>
       </c>
       <c r="O23" t="n">
-        <v>812.587214318373</v>
+        <v>812.5872143183731</v>
       </c>
       <c r="P23" t="n">
-        <v>333.6707471497814</v>
+        <v>655.4694553212641</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.147284070141</v>
+        <v>414.2284857135265</v>
       </c>
       <c r="R23" t="n">
-        <v>31.17959628768836</v>
+        <v>96.89601616067083</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>71.74208508315763</v>
+        <v>197.8331204235665</v>
       </c>
       <c r="K24" t="n">
         <v>201.562917717219</v>
       </c>
       <c r="L24" t="n">
-        <v>688.6570081945405</v>
+        <v>317.8166628910814</v>
       </c>
       <c r="M24" t="n">
         <v>390.4294472435426</v>
       </c>
       <c r="N24" t="n">
-        <v>415.3171397365836</v>
+        <v>415.3171397365837</v>
       </c>
       <c r="O24" t="n">
         <v>357.4898064952853</v>
       </c>
       <c r="P24" t="n">
-        <v>276.5283351199939</v>
+        <v>311.2003573471947</v>
       </c>
       <c r="Q24" t="n">
-        <v>128.3188586964346</v>
+        <v>338.3961464322837</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>31.22334937722306</v>
+        <v>31.22334937722307</v>
       </c>
       <c r="K25" t="n">
         <v>182.4578743734213</v>
@@ -36527,16 +36527,16 @@
         <v>315.8056277736248</v>
       </c>
       <c r="N25" t="n">
-        <v>313.7859873426785</v>
+        <v>313.7859873426786</v>
       </c>
       <c r="O25" t="n">
         <v>273.6540707674656</v>
       </c>
       <c r="P25" t="n">
-        <v>210.4000678654836</v>
+        <v>210.4000678654837</v>
       </c>
       <c r="Q25" t="n">
-        <v>61.39224235564451</v>
+        <v>61.39224235564454</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>321.4657473671655</v>
       </c>
       <c r="K26" t="n">
-        <v>279.6128600688545</v>
+        <v>603.7582726400193</v>
       </c>
       <c r="L26" t="n">
-        <v>801.8201994534743</v>
+        <v>801.8201994534744</v>
       </c>
       <c r="M26" t="n">
-        <v>908.9537544610312</v>
+        <v>459.4402209681987</v>
       </c>
       <c r="N26" t="n">
-        <v>908.8817809892826</v>
+        <v>599.7023696221906</v>
       </c>
       <c r="O26" t="n">
-        <v>812.587214318373</v>
+        <v>812.5872143183731</v>
       </c>
       <c r="P26" t="n">
-        <v>333.6707471497814</v>
+        <v>655.4694553212641</v>
       </c>
       <c r="Q26" t="n">
-        <v>367.1960814692321</v>
+        <v>414.2284857135265</v>
       </c>
       <c r="R26" t="n">
-        <v>31.17959628768836</v>
+        <v>96.89601616067083</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>71.74208508315763</v>
+        <v>197.8331204235665</v>
       </c>
       <c r="K27" t="n">
         <v>201.562917717219</v>
       </c>
       <c r="L27" t="n">
-        <v>379.3338378447489</v>
+        <v>317.8166628910814</v>
       </c>
       <c r="M27" t="n">
         <v>390.4294472435426</v>
       </c>
       <c r="N27" t="n">
-        <v>415.3171397365836</v>
+        <v>415.3171397365837</v>
       </c>
       <c r="O27" t="n">
         <v>357.4898064952853</v>
       </c>
       <c r="P27" t="n">
-        <v>585.8515054697855</v>
+        <v>311.2003573471947</v>
       </c>
       <c r="Q27" t="n">
-        <v>128.3188586964346</v>
+        <v>338.3961464322837</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>31.22334937722306</v>
+        <v>31.22334937722307</v>
       </c>
       <c r="K28" t="n">
         <v>182.4578743734213</v>
@@ -36764,16 +36764,16 @@
         <v>315.8056277736248</v>
       </c>
       <c r="N28" t="n">
-        <v>313.7859873426785</v>
+        <v>313.7859873426786</v>
       </c>
       <c r="O28" t="n">
         <v>273.6540707674656</v>
       </c>
       <c r="P28" t="n">
-        <v>210.4000678654836</v>
+        <v>210.4000678654837</v>
       </c>
       <c r="Q28" t="n">
-        <v>61.39224235564451</v>
+        <v>61.39224235564454</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>152.3691321950917</v>
+        <v>321.4657473671655</v>
       </c>
       <c r="K29" t="n">
-        <v>603.7582726400192</v>
+        <v>603.7582726400193</v>
       </c>
       <c r="L29" t="n">
-        <v>801.8201994534743</v>
+        <v>801.8201994534744</v>
       </c>
       <c r="M29" t="n">
-        <v>908.9537544610312</v>
+        <v>459.4402209681987</v>
       </c>
       <c r="N29" t="n">
-        <v>908.8817809892826</v>
+        <v>599.7023696221906</v>
       </c>
       <c r="O29" t="n">
-        <v>812.587214318373</v>
+        <v>812.5872143183731</v>
       </c>
       <c r="P29" t="n">
-        <v>343.9045361662998</v>
+        <v>655.4694553212641</v>
       </c>
       <c r="Q29" t="n">
-        <v>201.9134950536219</v>
+        <v>414.2284857135265</v>
       </c>
       <c r="R29" t="n">
-        <v>31.17959628768836</v>
+        <v>96.89601616067083</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>71.74208508315763</v>
+        <v>197.8331204235665</v>
       </c>
       <c r="K30" t="n">
         <v>201.562917717219</v>
       </c>
       <c r="L30" t="n">
-        <v>317.8166628910813</v>
+        <v>317.8166628910814</v>
       </c>
       <c r="M30" t="n">
         <v>390.4294472435426</v>
       </c>
       <c r="N30" t="n">
-        <v>795.2970833301885</v>
+        <v>415.3171397365837</v>
       </c>
       <c r="O30" t="n">
         <v>357.4898064952853</v>
       </c>
       <c r="P30" t="n">
-        <v>267.3887368298483</v>
+        <v>280.8584747025437</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.3188586964346</v>
+        <v>338.3961464322837</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>30.34188264465105</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>31.22334937722306</v>
+        <v>31.22334937722307</v>
       </c>
       <c r="K31" t="n">
         <v>182.4578743734213</v>
@@ -37001,16 +37001,16 @@
         <v>315.8056277736248</v>
       </c>
       <c r="N31" t="n">
-        <v>313.7859873426785</v>
+        <v>313.7859873426786</v>
       </c>
       <c r="O31" t="n">
         <v>273.6540707674656</v>
       </c>
       <c r="P31" t="n">
-        <v>210.4000678654836</v>
+        <v>210.4000678654837</v>
       </c>
       <c r="Q31" t="n">
-        <v>61.39224235564451</v>
+        <v>61.39224235564454</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>152.3691321950917</v>
+        <v>321.4657473671655</v>
       </c>
       <c r="K32" t="n">
-        <v>603.7582726400192</v>
+        <v>279.6128600688546</v>
       </c>
       <c r="L32" t="n">
-        <v>801.8201994534743</v>
+        <v>801.8201994534744</v>
       </c>
       <c r="M32" t="n">
         <v>908.9537544610312</v>
       </c>
       <c r="N32" t="n">
-        <v>908.8817809892826</v>
+        <v>908.8817809892827</v>
       </c>
       <c r="O32" t="n">
-        <v>812.587214318373</v>
+        <v>812.5872143183731</v>
       </c>
       <c r="P32" t="n">
-        <v>343.9045361662998</v>
+        <v>433.2369136924079</v>
       </c>
       <c r="Q32" t="n">
         <v>201.9134950536219</v>
       </c>
       <c r="R32" t="n">
-        <v>31.17959628768836</v>
+        <v>96.89601616067083</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>71.74208508315763</v>
+        <v>197.8331204235665</v>
       </c>
       <c r="K33" t="n">
-        <v>201.562917717219</v>
+        <v>245.3745382345653</v>
       </c>
       <c r="L33" t="n">
-        <v>317.8166628910813</v>
+        <v>317.8166628910814</v>
       </c>
       <c r="M33" t="n">
         <v>390.4294472435426</v>
       </c>
       <c r="N33" t="n">
-        <v>795.2970833301885</v>
+        <v>415.3171397365837</v>
       </c>
       <c r="O33" t="n">
         <v>357.4898064952853</v>
       </c>
       <c r="P33" t="n">
-        <v>267.3887368298483</v>
+        <v>267.3887368298484</v>
       </c>
       <c r="Q33" t="n">
-        <v>128.3188586964346</v>
+        <v>338.3961464322837</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>31.22334937722306</v>
+        <v>31.22334937722307</v>
       </c>
       <c r="K34" t="n">
         <v>182.4578743734213</v>
@@ -37238,16 +37238,16 @@
         <v>315.8056277736248</v>
       </c>
       <c r="N34" t="n">
-        <v>313.7859873426785</v>
+        <v>313.7859873426786</v>
       </c>
       <c r="O34" t="n">
         <v>273.6540707674656</v>
       </c>
       <c r="P34" t="n">
-        <v>210.4000678654836</v>
+        <v>210.4000678654837</v>
       </c>
       <c r="Q34" t="n">
-        <v>61.39224235564451</v>
+        <v>61.39224235564454</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>152.3691321950917</v>
+        <v>321.4657473671655</v>
       </c>
       <c r="K35" t="n">
-        <v>603.7582726400192</v>
+        <v>603.7582726400193</v>
       </c>
       <c r="L35" t="n">
-        <v>801.8201994534743</v>
+        <v>801.8201994534744</v>
       </c>
       <c r="M35" t="n">
-        <v>908.9537544610312</v>
+        <v>587.6077340130905</v>
       </c>
       <c r="N35" t="n">
-        <v>597.3168618343179</v>
+        <v>471.5348565772985</v>
       </c>
       <c r="O35" t="n">
-        <v>812.587214318373</v>
+        <v>812.5872143183731</v>
       </c>
       <c r="P35" t="n">
         <v>655.4694553212641</v>
       </c>
       <c r="Q35" t="n">
-        <v>201.9134950536219</v>
+        <v>414.2284857135265</v>
       </c>
       <c r="R35" t="n">
-        <v>31.17959628768836</v>
+        <v>96.89601616067083</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>71.74208508315763</v>
+        <v>197.8331204235665</v>
       </c>
       <c r="K36" t="n">
         <v>201.562917717219</v>
       </c>
       <c r="L36" t="n">
-        <v>317.8166628910813</v>
+        <v>317.8166628910814</v>
       </c>
       <c r="M36" t="n">
         <v>390.4294472435426</v>
       </c>
       <c r="N36" t="n">
-        <v>415.3171397365836</v>
+        <v>415.3171397365837</v>
       </c>
       <c r="O36" t="n">
         <v>357.4898064952853</v>
       </c>
       <c r="P36" t="n">
-        <v>585.8515054697855</v>
+        <v>311.2003573471947</v>
       </c>
       <c r="Q36" t="n">
-        <v>189.836033650102</v>
+        <v>338.3961464322837</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>31.22334937722306</v>
+        <v>31.22334937722307</v>
       </c>
       <c r="K37" t="n">
         <v>182.4578743734213</v>
@@ -37475,16 +37475,16 @@
         <v>315.8056277736248</v>
       </c>
       <c r="N37" t="n">
-        <v>313.7859873426785</v>
+        <v>313.7859873426786</v>
       </c>
       <c r="O37" t="n">
         <v>273.6540707674656</v>
       </c>
       <c r="P37" t="n">
-        <v>210.4000678654836</v>
+        <v>210.4000678654837</v>
       </c>
       <c r="Q37" t="n">
-        <v>61.39224235564451</v>
+        <v>61.39224235564454</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>152.3691321950917</v>
+        <v>321.4657473671655</v>
       </c>
       <c r="K38" t="n">
-        <v>603.7582726400192</v>
+        <v>603.7582726400193</v>
       </c>
       <c r="L38" t="n">
-        <v>801.8201994534743</v>
+        <v>801.8201994534744</v>
       </c>
       <c r="M38" t="n">
-        <v>597.3888353060669</v>
+        <v>908.9537544610312</v>
       </c>
       <c r="N38" t="n">
-        <v>908.8817809892826</v>
+        <v>530.9890173921033</v>
       </c>
       <c r="O38" t="n">
-        <v>812.587214318373</v>
+        <v>431.7870330556277</v>
       </c>
       <c r="P38" t="n">
         <v>655.4694553212641</v>
       </c>
       <c r="Q38" t="n">
-        <v>201.9134950536219</v>
+        <v>414.2284857135265</v>
       </c>
       <c r="R38" t="n">
-        <v>31.17959628768836</v>
+        <v>96.89601616067083</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>71.74208508315763</v>
+        <v>197.8331204235665</v>
       </c>
       <c r="K39" t="n">
         <v>201.562917717219</v>
       </c>
       <c r="L39" t="n">
-        <v>317.8166628910813</v>
+        <v>317.8166628910814</v>
       </c>
       <c r="M39" t="n">
-        <v>770.4093908371474</v>
+        <v>390.4294472435426</v>
       </c>
       <c r="N39" t="n">
-        <v>415.3171397365836</v>
+        <v>415.3171397365837</v>
       </c>
       <c r="O39" t="n">
         <v>357.4898064952853</v>
       </c>
       <c r="P39" t="n">
-        <v>267.3887368298483</v>
+        <v>311.2003573471947</v>
       </c>
       <c r="Q39" t="n">
-        <v>128.3188586964346</v>
+        <v>338.3961464322837</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>31.22334937722306</v>
+        <v>31.22334937722307</v>
       </c>
       <c r="K40" t="n">
         <v>182.4578743734213</v>
@@ -37712,16 +37712,16 @@
         <v>315.8056277736248</v>
       </c>
       <c r="N40" t="n">
-        <v>313.7859873426785</v>
+        <v>313.7859873426786</v>
       </c>
       <c r="O40" t="n">
         <v>273.6540707674656</v>
       </c>
       <c r="P40" t="n">
-        <v>210.4000678654836</v>
+        <v>210.4000678654837</v>
       </c>
       <c r="Q40" t="n">
-        <v>61.39224235564451</v>
+        <v>61.39224235564454</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,19 +37782,19 @@
         <v>321.4657473671655</v>
       </c>
       <c r="K41" t="n">
-        <v>603.7582726400192</v>
+        <v>603.7582726400193</v>
       </c>
       <c r="L41" t="n">
-        <v>546.190598878516</v>
+        <v>480.4741790055338</v>
       </c>
       <c r="M41" t="n">
         <v>908.9537544610312</v>
       </c>
       <c r="N41" t="n">
-        <v>471.5348565772984</v>
+        <v>471.5348565772985</v>
       </c>
       <c r="O41" t="n">
-        <v>812.587214318373</v>
+        <v>812.5872143183731</v>
       </c>
       <c r="P41" t="n">
         <v>655.4694553212641</v>
@@ -37803,7 +37803,7 @@
         <v>414.2284857135265</v>
       </c>
       <c r="R41" t="n">
-        <v>31.17959628768836</v>
+        <v>96.89601616067083</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>71.74208508315763</v>
+        <v>197.8331204235665</v>
       </c>
       <c r="K42" t="n">
-        <v>466.0281547297976</v>
+        <v>425.1099433257633</v>
       </c>
       <c r="L42" t="n">
-        <v>317.8166628910813</v>
+        <v>317.8166628910814</v>
       </c>
       <c r="M42" t="n">
         <v>390.4294472435426</v>
       </c>
       <c r="N42" t="n">
-        <v>415.3171397365836</v>
+        <v>415.3171397365837</v>
       </c>
       <c r="O42" t="n">
         <v>357.4898064952853</v>
       </c>
       <c r="P42" t="n">
-        <v>267.3887368298483</v>
+        <v>267.3887368298484</v>
       </c>
       <c r="Q42" t="n">
-        <v>243.8335652774603</v>
+        <v>128.3188586964346</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>30.34188264465105</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>31.22334937722306</v>
+        <v>31.22334937722307</v>
       </c>
       <c r="K43" t="n">
         <v>182.4578743734213</v>
@@ -37949,16 +37949,16 @@
         <v>315.8056277736248</v>
       </c>
       <c r="N43" t="n">
-        <v>313.7859873426785</v>
+        <v>313.7859873426786</v>
       </c>
       <c r="O43" t="n">
         <v>273.6540707674656</v>
       </c>
       <c r="P43" t="n">
-        <v>210.4000678654836</v>
+        <v>210.4000678654837</v>
       </c>
       <c r="Q43" t="n">
-        <v>61.39224235564451</v>
+        <v>61.39224235564454</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,19 +38019,19 @@
         <v>321.4657473671655</v>
       </c>
       <c r="K44" t="n">
-        <v>603.7582726400192</v>
+        <v>603.7582726400193</v>
       </c>
       <c r="L44" t="n">
-        <v>801.8201994534743</v>
+        <v>801.8201994534744</v>
       </c>
       <c r="M44" t="n">
-        <v>587.607734013091</v>
+        <v>459.4402209681987</v>
       </c>
       <c r="N44" t="n">
-        <v>471.5348565772984</v>
+        <v>599.7023696221906</v>
       </c>
       <c r="O44" t="n">
-        <v>812.587214318373</v>
+        <v>812.5872143183731</v>
       </c>
       <c r="P44" t="n">
         <v>655.4694553212641</v>
@@ -38040,7 +38040,7 @@
         <v>414.2284857135265</v>
       </c>
       <c r="R44" t="n">
-        <v>96.8960161606708</v>
+        <v>96.89601616067083</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>71.74208508315763</v>
+        <v>71.74208508315766</v>
       </c>
       <c r="K45" t="n">
-        <v>466.0281547297976</v>
+        <v>201.562917717219</v>
       </c>
       <c r="L45" t="n">
-        <v>317.8166628910813</v>
+        <v>317.8166628910814</v>
       </c>
       <c r="M45" t="n">
         <v>390.4294472435426</v>
       </c>
       <c r="N45" t="n">
-        <v>415.3171397365836</v>
+        <v>415.3171397365837</v>
       </c>
       <c r="O45" t="n">
         <v>357.4898064952853</v>
       </c>
       <c r="P45" t="n">
-        <v>267.3887368298483</v>
+        <v>585.8515054697855</v>
       </c>
       <c r="Q45" t="n">
-        <v>243.8335652774603</v>
+        <v>189.836033650102</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>31.22334937722306</v>
+        <v>31.22334937722307</v>
       </c>
       <c r="K46" t="n">
         <v>182.4578743734213</v>
@@ -38186,16 +38186,16 @@
         <v>315.8056277736248</v>
       </c>
       <c r="N46" t="n">
-        <v>313.7859873426785</v>
+        <v>313.7859873426786</v>
       </c>
       <c r="O46" t="n">
         <v>273.6540707674656</v>
       </c>
       <c r="P46" t="n">
-        <v>210.4000678654836</v>
+        <v>210.4000678654837</v>
       </c>
       <c r="Q46" t="n">
-        <v>61.39224235564451</v>
+        <v>61.39224235564454</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
